--- a/ЗАЯВКА ВОДОСТОК.xlsx
+++ b/ЗАЯВКА ВОДОСТОК.xlsx
@@ -3825,34 +3825,32 @@
         <v>0.63</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="5">
+      <c r="H8" s="5" t="str">
         <f>G8*F8</f>
         <v>0</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="5">
+      <c r="J8" s="5" t="str">
         <f>I8*F8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="7">
-        <v>33</v>
-      </c>
-      <c r="L8" s="5">
+      <c r="K8" s="7"/>
+      <c r="L8" s="5" t="str">
         <f>F8*K8</f>
-        <v>20.79</v>
+        <v>0</v>
       </c>
       <c r="M8" s="7"/>
-      <c r="N8" s="5">
+      <c r="N8" s="5" t="str">
         <f>M8*F8</f>
         <v>0</v>
       </c>
       <c r="O8" s="7"/>
-      <c r="P8" s="5">
+      <c r="P8" s="5" t="str">
         <f>O8*F8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="7"/>
-      <c r="R8" s="5">
+      <c r="R8" s="5" t="str">
         <f>Q8*F8</f>
         <v>0</v>
       </c>
@@ -3881,34 +3879,32 @@
         <v>0.98</v>
       </c>
       <c r="G9" s="29"/>
-      <c r="H9" s="5">
+      <c r="H9" s="5" t="str">
         <f>G9*F9</f>
         <v>0</v>
       </c>
       <c r="I9" s="22"/>
-      <c r="J9" s="5">
+      <c r="J9" s="5" t="str">
         <f>I9*F9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="7">
-        <v>22</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="K9" s="7"/>
+      <c r="L9" s="5" t="str">
         <f>F9*K9</f>
-        <v>21.56</v>
+        <v>0</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="5">
+      <c r="N9" s="5" t="str">
         <f>M9*F9</f>
         <v>0</v>
       </c>
       <c r="O9" s="7"/>
-      <c r="P9" s="5">
+      <c r="P9" s="5" t="str">
         <f>O9*F9</f>
         <v>0</v>
       </c>
       <c r="Q9" s="7"/>
-      <c r="R9" s="5">
+      <c r="R9" s="5" t="str">
         <f>Q9*F9</f>
         <v>0</v>
       </c>
@@ -3937,34 +3933,32 @@
         <v>1.5</v>
       </c>
       <c r="G10" s="22"/>
-      <c r="H10" s="5">
+      <c r="H10" s="5" t="str">
         <f>G10*F10</f>
         <v>0</v>
       </c>
       <c r="I10" s="22"/>
-      <c r="J10" s="5">
+      <c r="J10" s="5" t="str">
         <f>I10*F10</f>
         <v>0</v>
       </c>
-      <c r="K10" s="7">
-        <v>25</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="K10" s="7"/>
+      <c r="L10" s="5" t="str">
         <f>F10*K10</f>
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="5">
+      <c r="N10" s="5" t="str">
         <f>M10*F10</f>
         <v>0</v>
       </c>
       <c r="O10" s="7"/>
-      <c r="P10" s="5">
+      <c r="P10" s="5" t="str">
         <f>O10*F10</f>
         <v>0</v>
       </c>
       <c r="Q10" s="7"/>
-      <c r="R10" s="5">
+      <c r="R10" s="5" t="str">
         <f>Q10*F10</f>
         <v>0</v>
       </c>
@@ -3993,34 +3987,32 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="22"/>
-      <c r="H11" s="5">
+      <c r="H11" s="5" t="str">
         <f>G11*F11</f>
         <v>0</v>
       </c>
       <c r="I11" s="22"/>
-      <c r="J11" s="5">
+      <c r="J11" s="5" t="str">
         <f>I11*F11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="7">
-        <v>7</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="K11" s="7"/>
+      <c r="L11" s="5" t="str">
         <f>F11*K11</f>
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="5">
+      <c r="N11" s="5" t="str">
         <f>M11*F11</f>
         <v>0</v>
       </c>
       <c r="O11" s="7"/>
-      <c r="P11" s="5">
+      <c r="P11" s="5" t="str">
         <f>O11*F11</f>
         <v>0</v>
       </c>
       <c r="Q11" s="7"/>
-      <c r="R11" s="5">
+      <c r="R11" s="5" t="str">
         <f>Q11*F11</f>
         <v>0</v>
       </c>
@@ -4049,34 +4041,32 @@
         <v>1.5</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="5">
+      <c r="H12" s="5" t="str">
         <f>G12*F12</f>
         <v>0</v>
       </c>
       <c r="I12" s="22"/>
-      <c r="J12" s="5">
+      <c r="J12" s="5" t="str">
         <f>I12*F12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="7">
-        <v>11</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="K12" s="7"/>
+      <c r="L12" s="5" t="str">
         <f>F12*K12</f>
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="5">
+      <c r="N12" s="5" t="str">
         <f>M12*F12</f>
         <v>0</v>
       </c>
       <c r="O12" s="7"/>
-      <c r="P12" s="5">
+      <c r="P12" s="5" t="str">
         <f>O12*F12</f>
         <v>0</v>
       </c>
       <c r="Q12" s="7"/>
-      <c r="R12" s="5">
+      <c r="R12" s="5" t="str">
         <f>Q12*F12</f>
         <v>0</v>
       </c>
@@ -4105,34 +4095,32 @@
         <v>0.43</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="5">
+      <c r="H13" s="5" t="str">
         <f>G13*F13</f>
         <v>0</v>
       </c>
       <c r="I13" s="22"/>
-      <c r="J13" s="5">
+      <c r="J13" s="5" t="str">
         <f>I13*F13</f>
         <v>0</v>
       </c>
-      <c r="K13" s="7">
-        <v>154</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="K13" s="7"/>
+      <c r="L13" s="5" t="str">
         <f>F13*K13</f>
-        <v>66.22</v>
+        <v>0</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="5">
+      <c r="N13" s="5" t="str">
         <f>M13*F13</f>
         <v>0</v>
       </c>
       <c r="O13" s="7"/>
-      <c r="P13" s="5">
+      <c r="P13" s="5" t="str">
         <f>O13*F13</f>
         <v>0</v>
       </c>
       <c r="Q13" s="7"/>
-      <c r="R13" s="5">
+      <c r="R13" s="5" t="str">
         <f>Q13*F13</f>
         <v>0</v>
       </c>
@@ -4161,34 +4149,32 @@
         <v>0.45</v>
       </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="5">
+      <c r="H14" s="5" t="str">
         <f>G14*F14</f>
         <v>0</v>
       </c>
       <c r="I14" s="22"/>
-      <c r="J14" s="5">
+      <c r="J14" s="5" t="str">
         <f>I14*F14</f>
         <v>0</v>
       </c>
-      <c r="K14" s="7">
-        <v>15</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="K14" s="7"/>
+      <c r="L14" s="5" t="str">
         <f>F14*K14</f>
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="M14" s="7"/>
-      <c r="N14" s="5">
+      <c r="N14" s="5" t="str">
         <f>M14*F14</f>
         <v>0</v>
       </c>
       <c r="O14" s="7"/>
-      <c r="P14" s="5">
+      <c r="P14" s="5" t="str">
         <f>O14*F14</f>
         <v>0</v>
       </c>
       <c r="Q14" s="7"/>
-      <c r="R14" s="5">
+      <c r="R14" s="5" t="str">
         <f>Q14*F14</f>
         <v>0</v>
       </c>
@@ -4217,34 +4203,32 @@
         <v>0.45</v>
       </c>
       <c r="G15" s="22"/>
-      <c r="H15" s="5">
+      <c r="H15" s="5" t="str">
         <f>G15*F15</f>
         <v>0</v>
       </c>
       <c r="I15" s="22"/>
-      <c r="J15" s="5">
+      <c r="J15" s="5" t="str">
         <f>I15*F15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="7">
-        <v>15</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="K15" s="7"/>
+      <c r="L15" s="5" t="str">
         <f>F15*K15</f>
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="5">
+      <c r="N15" s="5" t="str">
         <f>M15*F15</f>
         <v>0</v>
       </c>
       <c r="O15" s="7"/>
-      <c r="P15" s="5">
+      <c r="P15" s="5" t="str">
         <f>O15*F15</f>
         <v>0</v>
       </c>
       <c r="Q15" s="7"/>
-      <c r="R15" s="5">
+      <c r="R15" s="5" t="str">
         <f>Q15*F15</f>
         <v>0</v>
       </c>
@@ -4309,32 +4293,32 @@
         <v>0.85</v>
       </c>
       <c r="G17" s="22"/>
-      <c r="H17" s="5">
+      <c r="H17" s="5" t="str">
         <f>G17*F17</f>
         <v>0</v>
       </c>
       <c r="I17" s="22"/>
-      <c r="J17" s="5">
+      <c r="J17" s="5" t="str">
         <f>I17*F17</f>
         <v>0</v>
       </c>
       <c r="K17" s="48"/>
-      <c r="L17" s="5">
+      <c r="L17" s="5" t="str">
         <f>K17*F17</f>
         <v>0</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="5">
+      <c r="N17" s="5" t="str">
         <f>M17*F17</f>
         <v>0</v>
       </c>
       <c r="O17" s="7"/>
-      <c r="P17" s="5">
+      <c r="P17" s="5" t="str">
         <f>O17*F17</f>
         <v>0</v>
       </c>
       <c r="Q17" s="7"/>
-      <c r="R17" s="5">
+      <c r="R17" s="5" t="str">
         <f>Q17*F17</f>
         <v>0</v>
       </c>
@@ -4363,32 +4347,32 @@
         <v>1.2</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="5">
+      <c r="H18" s="5" t="str">
         <f>G18*F18</f>
         <v>0</v>
       </c>
       <c r="I18" s="22"/>
-      <c r="J18" s="5">
+      <c r="J18" s="5" t="str">
         <f>I18*F18</f>
         <v>0</v>
       </c>
       <c r="K18" s="49"/>
-      <c r="L18" s="5">
+      <c r="L18" s="5" t="str">
         <f>K18*F18</f>
         <v>0</v>
       </c>
       <c r="M18" s="7"/>
-      <c r="N18" s="5">
+      <c r="N18" s="5" t="str">
         <f>M18*F18</f>
         <v>0</v>
       </c>
       <c r="O18" s="7"/>
-      <c r="P18" s="5">
+      <c r="P18" s="5" t="str">
         <f>O18*F18</f>
         <v>0</v>
       </c>
       <c r="Q18" s="7"/>
-      <c r="R18" s="5">
+      <c r="R18" s="5" t="str">
         <f>Q18*F18</f>
         <v>0</v>
       </c>
@@ -4417,32 +4401,32 @@
         <v>1.61</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="5">
+      <c r="H19" s="5" t="str">
         <f>G19*F19</f>
         <v>0</v>
       </c>
       <c r="I19" s="22"/>
-      <c r="J19" s="5">
+      <c r="J19" s="5" t="str">
         <f>I19*F19</f>
         <v>0</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="5">
+      <c r="L19" s="5" t="str">
         <f>K19*F19</f>
         <v>0</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="5">
+      <c r="N19" s="5" t="str">
         <f>M19*F19</f>
         <v>0</v>
       </c>
       <c r="O19" s="7"/>
-      <c r="P19" s="5">
+      <c r="P19" s="5" t="str">
         <f>O19*F19</f>
         <v>0</v>
       </c>
       <c r="Q19" s="7"/>
-      <c r="R19" s="5">
+      <c r="R19" s="5" t="str">
         <f>Q19*F19</f>
         <v>0</v>
       </c>
@@ -4471,32 +4455,32 @@
         <v>1.61</v>
       </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="5">
+      <c r="H20" s="5" t="str">
         <f>G20*F20</f>
         <v>0</v>
       </c>
       <c r="I20" s="22"/>
-      <c r="J20" s="5">
+      <c r="J20" s="5" t="str">
         <f>I20*F20</f>
         <v>0</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="5">
+      <c r="L20" s="5" t="str">
         <f>K20*F20</f>
         <v>0</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="5">
+      <c r="N20" s="5" t="str">
         <f>M20*F20</f>
         <v>0</v>
       </c>
       <c r="O20" s="7"/>
-      <c r="P20" s="5">
+      <c r="P20" s="5" t="str">
         <f>O20*F20</f>
         <v>0</v>
       </c>
       <c r="Q20" s="7"/>
-      <c r="R20" s="5">
+      <c r="R20" s="5" t="str">
         <f>Q20*F20</f>
         <v>0</v>
       </c>
@@ -4525,32 +4509,32 @@
         <v>1.61</v>
       </c>
       <c r="G21" s="22"/>
-      <c r="H21" s="5">
+      <c r="H21" s="5" t="str">
         <f>G21*F21</f>
         <v>0</v>
       </c>
       <c r="I21" s="22"/>
-      <c r="J21" s="5">
+      <c r="J21" s="5" t="str">
         <f>I21*F21</f>
         <v>0</v>
       </c>
       <c r="K21" s="48"/>
-      <c r="L21" s="5">
+      <c r="L21" s="5" t="str">
         <f>K21*F21</f>
         <v>0</v>
       </c>
       <c r="M21" s="7"/>
-      <c r="N21" s="5">
+      <c r="N21" s="5" t="str">
         <f>M21*F21</f>
         <v>0</v>
       </c>
       <c r="O21" s="7"/>
-      <c r="P21" s="5">
+      <c r="P21" s="5" t="str">
         <f>O21*F21</f>
         <v>0</v>
       </c>
       <c r="Q21" s="7"/>
-      <c r="R21" s="5">
+      <c r="R21" s="5" t="str">
         <f>Q21*F21</f>
         <v>0</v>
       </c>
@@ -4579,32 +4563,32 @@
         <v>0.49</v>
       </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="5">
+      <c r="H22" s="5" t="str">
         <f>G22*F22</f>
         <v>0</v>
       </c>
       <c r="I22" s="22"/>
-      <c r="J22" s="5">
+      <c r="J22" s="5" t="str">
         <f>I22*F22</f>
         <v>0</v>
       </c>
       <c r="K22" s="48"/>
-      <c r="L22" s="5">
+      <c r="L22" s="5" t="str">
         <f>K22*F22</f>
         <v>0</v>
       </c>
       <c r="M22" s="7"/>
-      <c r="N22" s="5">
+      <c r="N22" s="5" t="str">
         <f>M22*F22</f>
         <v>0</v>
       </c>
       <c r="O22" s="7"/>
-      <c r="P22" s="5">
+      <c r="P22" s="5" t="str">
         <f>O22*F22</f>
         <v>0</v>
       </c>
       <c r="Q22" s="7"/>
-      <c r="R22" s="5">
+      <c r="R22" s="5" t="str">
         <f>Q22*F22</f>
         <v>0</v>
       </c>
@@ -4633,32 +4617,32 @@
         <v>0.57</v>
       </c>
       <c r="G23" s="22"/>
-      <c r="H23" s="5">
+      <c r="H23" s="5" t="str">
         <f>G23*F23</f>
         <v>0</v>
       </c>
       <c r="I23" s="22"/>
-      <c r="J23" s="5">
+      <c r="J23" s="5" t="str">
         <f>I23*F23</f>
         <v>0</v>
       </c>
       <c r="K23" s="7"/>
-      <c r="L23" s="5">
+      <c r="L23" s="5" t="str">
         <f>K23*F23</f>
         <v>0</v>
       </c>
       <c r="M23" s="7"/>
-      <c r="N23" s="5">
+      <c r="N23" s="5" t="str">
         <f>M23*F23</f>
         <v>0</v>
       </c>
       <c r="O23" s="7"/>
-      <c r="P23" s="5">
+      <c r="P23" s="5" t="str">
         <f>O23*F23</f>
         <v>0</v>
       </c>
       <c r="Q23" s="7"/>
-      <c r="R23" s="5">
+      <c r="R23" s="5" t="str">
         <f>Q23*F23</f>
         <v>0</v>
       </c>
@@ -4687,32 +4671,32 @@
         <v>0.57</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="5">
+      <c r="H24" s="5" t="str">
         <f>G24*F24</f>
         <v>0</v>
       </c>
       <c r="I24" s="22"/>
-      <c r="J24" s="5">
+      <c r="J24" s="5" t="str">
         <f>I24*F24</f>
         <v>0</v>
       </c>
       <c r="K24" s="48"/>
-      <c r="L24" s="5">
+      <c r="L24" s="5" t="str">
         <f>K24*F24</f>
         <v>0</v>
       </c>
       <c r="M24" s="7"/>
-      <c r="N24" s="5">
+      <c r="N24" s="5" t="str">
         <f>M24*F24</f>
         <v>0</v>
       </c>
       <c r="O24" s="7"/>
-      <c r="P24" s="5">
+      <c r="P24" s="5" t="str">
         <f>O24*F24</f>
         <v>0</v>
       </c>
       <c r="Q24" s="22"/>
-      <c r="R24" s="5">
+      <c r="R24" s="5" t="str">
         <f>Q24*F24</f>
         <v>0</v>
       </c>
@@ -4776,35 +4760,33 @@
       <c r="F26" s="52">
         <v>1.06</v>
       </c>
-      <c r="G26" s="22">
-        <v>33</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="G26" s="22"/>
+      <c r="H26" s="5" t="str">
         <f>G26*F26</f>
-        <v>34.98</v>
+        <v>0</v>
       </c>
       <c r="I26" s="22"/>
-      <c r="J26" s="5">
+      <c r="J26" s="5" t="str">
         <f>I26*F26</f>
         <v>0</v>
       </c>
       <c r="K26" s="22"/>
-      <c r="L26" s="5">
+      <c r="L26" s="5" t="str">
         <f>K26*F26</f>
         <v>0</v>
       </c>
       <c r="M26" s="7"/>
-      <c r="N26" s="5">
+      <c r="N26" s="5" t="str">
         <f>M26*F26</f>
         <v>0</v>
       </c>
       <c r="O26" s="49"/>
-      <c r="P26" s="5">
+      <c r="P26" s="5" t="str">
         <f>O26*F26</f>
         <v>0</v>
       </c>
       <c r="Q26" s="51"/>
-      <c r="R26" s="5">
+      <c r="R26" s="5" t="str">
         <f>Q26*F26</f>
         <v>0</v>
       </c>
@@ -4832,35 +4814,33 @@
       <c r="F27" s="52">
         <v>1.06</v>
       </c>
-      <c r="G27" s="22">
-        <v>44</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="G27" s="22"/>
+      <c r="H27" s="5" t="str">
         <f>G27*F27</f>
-        <v>46.64</v>
+        <v>0</v>
       </c>
       <c r="I27" s="22"/>
-      <c r="J27" s="5">
+      <c r="J27" s="5" t="str">
         <f>I27*F27</f>
         <v>0</v>
       </c>
       <c r="K27" s="22"/>
-      <c r="L27" s="5">
+      <c r="L27" s="5" t="str">
         <f>K27*F27</f>
         <v>0</v>
       </c>
       <c r="M27" s="7"/>
-      <c r="N27" s="5">
+      <c r="N27" s="5" t="str">
         <f>M27*F27</f>
         <v>0</v>
       </c>
       <c r="O27" s="49"/>
-      <c r="P27" s="5">
+      <c r="P27" s="5" t="str">
         <f>O27*F27</f>
         <v>0</v>
       </c>
       <c r="Q27" s="51"/>
-      <c r="R27" s="5">
+      <c r="R27" s="5" t="str">
         <f>Q27*F27</f>
         <v>0</v>
       </c>
@@ -4888,35 +4868,33 @@
       <c r="F28" s="39">
         <v>1.42</v>
       </c>
-      <c r="G28" s="22">
-        <v>22</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="G28" s="22"/>
+      <c r="H28" s="5" t="str">
         <f>G28*F28</f>
-        <v>31.24</v>
+        <v>0</v>
       </c>
       <c r="I28" s="22"/>
-      <c r="J28" s="5">
+      <c r="J28" s="5" t="str">
         <f>I28*F28</f>
         <v>0</v>
       </c>
       <c r="K28" s="22"/>
-      <c r="L28" s="5">
+      <c r="L28" s="5" t="str">
         <f>K28*F28</f>
         <v>0</v>
       </c>
       <c r="M28" s="49"/>
-      <c r="N28" s="5">
+      <c r="N28" s="5" t="str">
         <f>M28*F28</f>
         <v>0</v>
       </c>
       <c r="O28" s="7"/>
-      <c r="P28" s="5">
+      <c r="P28" s="5" t="str">
         <f>O28*F28</f>
         <v>0</v>
       </c>
       <c r="Q28" s="51"/>
-      <c r="R28" s="5">
+      <c r="R28" s="5" t="str">
         <f>Q28*F28</f>
         <v>0</v>
       </c>
@@ -4944,35 +4922,33 @@
       <c r="F29" s="39">
         <v>1.73</v>
       </c>
-      <c r="G29" s="22">
-        <v>25</v>
-      </c>
-      <c r="H29" s="5">
+      <c r="G29" s="22"/>
+      <c r="H29" s="5" t="str">
         <f>G29*F29</f>
-        <v>43.25</v>
+        <v>0</v>
       </c>
       <c r="I29" s="22"/>
-      <c r="J29" s="5">
+      <c r="J29" s="5" t="str">
         <f>I29*F29</f>
         <v>0</v>
       </c>
       <c r="K29" s="22"/>
-      <c r="L29" s="5">
+      <c r="L29" s="5" t="str">
         <f>K29*F29</f>
         <v>0</v>
       </c>
       <c r="M29" s="22"/>
-      <c r="N29" s="5">
+      <c r="N29" s="5" t="str">
         <f>M29*F29</f>
         <v>0</v>
       </c>
       <c r="O29" s="22"/>
-      <c r="P29" s="5">
+      <c r="P29" s="5" t="str">
         <f>O29*F29</f>
         <v>0</v>
       </c>
       <c r="Q29" s="51"/>
-      <c r="R29" s="5">
+      <c r="R29" s="5" t="str">
         <f>Q29*F29</f>
         <v>0</v>
       </c>
@@ -5000,35 +4976,33 @@
       <c r="F30" s="39">
         <v>1.73</v>
       </c>
-      <c r="G30" s="22">
-        <v>25</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="G30" s="22"/>
+      <c r="H30" s="5" t="str">
         <f>G30*F30</f>
-        <v>43.25</v>
+        <v>0</v>
       </c>
       <c r="I30" s="22"/>
-      <c r="J30" s="5">
+      <c r="J30" s="5" t="str">
         <f>I30*F30</f>
         <v>0</v>
       </c>
       <c r="K30" s="22"/>
-      <c r="L30" s="5">
+      <c r="L30" s="5" t="str">
         <f>K30*F30</f>
         <v>0</v>
       </c>
       <c r="M30" s="22"/>
-      <c r="N30" s="5">
+      <c r="N30" s="5" t="str">
         <f>M30*F30</f>
         <v>0</v>
       </c>
       <c r="O30" s="22"/>
-      <c r="P30" s="5">
+      <c r="P30" s="5" t="str">
         <f>O30*F30</f>
         <v>0</v>
       </c>
       <c r="Q30" s="51"/>
-      <c r="R30" s="5">
+      <c r="R30" s="5" t="str">
         <f>Q30*F30</f>
         <v>0</v>
       </c>
@@ -5056,35 +5030,33 @@
       <c r="F31" s="39">
         <v>1.73</v>
       </c>
-      <c r="G31" s="22">
-        <v>7</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="G31" s="22"/>
+      <c r="H31" s="5" t="str">
         <f>G31*F31</f>
-        <v>12.11</v>
+        <v>0</v>
       </c>
       <c r="I31" s="22"/>
-      <c r="J31" s="5">
+      <c r="J31" s="5" t="str">
         <f>I31*F31</f>
         <v>0</v>
       </c>
       <c r="K31" s="22"/>
-      <c r="L31" s="5">
+      <c r="L31" s="5" t="str">
         <f>K31*F31</f>
         <v>0</v>
       </c>
       <c r="M31" s="22"/>
-      <c r="N31" s="5">
+      <c r="N31" s="5" t="str">
         <f>M31*F31</f>
         <v>0</v>
       </c>
       <c r="O31" s="22"/>
-      <c r="P31" s="5">
+      <c r="P31" s="5" t="str">
         <f>O31*F31</f>
         <v>0</v>
       </c>
       <c r="Q31" s="51"/>
-      <c r="R31" s="5">
+      <c r="R31" s="5" t="str">
         <f>Q31*F31</f>
         <v>0</v>
       </c>
@@ -5112,35 +5084,33 @@
       <c r="F32" s="39">
         <v>1.73</v>
       </c>
-      <c r="G32" s="22">
-        <v>11</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="G32" s="22"/>
+      <c r="H32" s="5" t="str">
         <f>G32*F32</f>
-        <v>19.03</v>
+        <v>0</v>
       </c>
       <c r="I32" s="22"/>
-      <c r="J32" s="5">
+      <c r="J32" s="5" t="str">
         <f>I32*F32</f>
         <v>0</v>
       </c>
       <c r="K32" s="22"/>
-      <c r="L32" s="5">
+      <c r="L32" s="5" t="str">
         <f>K32*F32</f>
         <v>0</v>
       </c>
       <c r="M32" s="22"/>
-      <c r="N32" s="5">
+      <c r="N32" s="5" t="str">
         <f>M32*F32</f>
         <v>0</v>
       </c>
       <c r="O32" s="22"/>
-      <c r="P32" s="5">
+      <c r="P32" s="5" t="str">
         <f>O32*F32</f>
         <v>0</v>
       </c>
       <c r="Q32" s="51"/>
-      <c r="R32" s="5">
+      <c r="R32" s="5" t="str">
         <f>Q32*F32</f>
         <v>0</v>
       </c>
@@ -5168,35 +5138,33 @@
       <c r="F33" s="39">
         <v>0.54</v>
       </c>
-      <c r="G33" s="22">
-        <v>154</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="G33" s="22"/>
+      <c r="H33" s="5" t="str">
         <f>G33*F33</f>
-        <v>83.16</v>
+        <v>0</v>
       </c>
       <c r="I33" s="22"/>
-      <c r="J33" s="5">
+      <c r="J33" s="5" t="str">
         <f>I33*F33</f>
         <v>0</v>
       </c>
       <c r="K33" s="22"/>
-      <c r="L33" s="5">
+      <c r="L33" s="5" t="str">
         <f>K33*F33</f>
         <v>0</v>
       </c>
       <c r="M33" s="22"/>
-      <c r="N33" s="5">
+      <c r="N33" s="5" t="str">
         <f>M33*F33</f>
         <v>0</v>
       </c>
       <c r="O33" s="22"/>
-      <c r="P33" s="5">
+      <c r="P33" s="5" t="str">
         <f>O33*F33</f>
         <v>0</v>
       </c>
       <c r="Q33" s="51"/>
-      <c r="R33" s="5">
+      <c r="R33" s="5" t="str">
         <f>Q33*F33</f>
         <v>0</v>
       </c>
@@ -5224,35 +5192,33 @@
       <c r="F34" s="39">
         <v>0.68</v>
       </c>
-      <c r="G34" s="22">
-        <v>15</v>
-      </c>
-      <c r="H34" s="5">
+      <c r="G34" s="22"/>
+      <c r="H34" s="5" t="str">
         <f>G34*F34</f>
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="22"/>
-      <c r="J34" s="5">
+      <c r="J34" s="5" t="str">
         <f>I34*F34</f>
         <v>0</v>
       </c>
       <c r="K34" s="22"/>
-      <c r="L34" s="5">
+      <c r="L34" s="5" t="str">
         <f>K34*F34</f>
         <v>0</v>
       </c>
       <c r="M34" s="22"/>
-      <c r="N34" s="5">
+      <c r="N34" s="5" t="str">
         <f>M34*F34</f>
         <v>0</v>
       </c>
       <c r="O34" s="22"/>
-      <c r="P34" s="5">
+      <c r="P34" s="5" t="str">
         <f>O34*F34</f>
         <v>0</v>
       </c>
       <c r="Q34" s="51"/>
-      <c r="R34" s="5">
+      <c r="R34" s="5" t="str">
         <f>Q34*F34</f>
         <v>0</v>
       </c>
@@ -5280,35 +5246,33 @@
       <c r="F35" s="39">
         <v>0.68</v>
       </c>
-      <c r="G35" s="22">
-        <v>15</v>
-      </c>
-      <c r="H35" s="5">
+      <c r="G35" s="22"/>
+      <c r="H35" s="5" t="str">
         <f>G35*F35</f>
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="I35" s="22"/>
-      <c r="J35" s="5">
+      <c r="J35" s="5" t="str">
         <f>I35*F35</f>
         <v>0</v>
       </c>
       <c r="K35" s="22"/>
-      <c r="L35" s="5">
+      <c r="L35" s="5" t="str">
         <f>K35*F35</f>
         <v>0</v>
       </c>
       <c r="M35" s="22"/>
-      <c r="N35" s="5">
+      <c r="N35" s="5" t="str">
         <f>M35*F35</f>
         <v>0</v>
       </c>
       <c r="O35" s="22"/>
-      <c r="P35" s="5">
+      <c r="P35" s="5" t="str">
         <f>O35*F35</f>
         <v>0</v>
       </c>
       <c r="Q35" s="51"/>
-      <c r="R35" s="5">
+      <c r="R35" s="5" t="str">
         <f>Q35*F35</f>
         <v>0</v>
       </c>
@@ -5337,32 +5301,32 @@
         <v>0.51</v>
       </c>
       <c r="G36" s="22"/>
-      <c r="H36" s="5">
+      <c r="H36" s="5" t="str">
         <f>G36*F36</f>
         <v>0</v>
       </c>
       <c r="I36" s="22"/>
-      <c r="J36" s="5">
+      <c r="J36" s="5" t="str">
         <f>I36*F36</f>
         <v>0</v>
       </c>
       <c r="K36" s="22"/>
-      <c r="L36" s="5">
+      <c r="L36" s="5" t="str">
         <f>K36*F36</f>
         <v>0</v>
       </c>
       <c r="M36" s="22"/>
-      <c r="N36" s="5">
+      <c r="N36" s="5" t="str">
         <f>M36*F36</f>
         <v>0</v>
       </c>
       <c r="O36" s="22"/>
-      <c r="P36" s="5">
+      <c r="P36" s="5" t="str">
         <f>O36*F36</f>
         <v>0</v>
       </c>
       <c r="Q36" s="51"/>
-      <c r="R36" s="5">
+      <c r="R36" s="5" t="str">
         <f>Q36*F36</f>
         <v>0</v>
       </c>
@@ -5427,34 +5391,32 @@
         <v>1.38</v>
       </c>
       <c r="G38" s="22"/>
-      <c r="H38" s="5">
+      <c r="H38" s="5" t="str">
         <f>G38*F38</f>
         <v>0</v>
       </c>
-      <c r="I38" s="22">
-        <v>44</v>
-      </c>
-      <c r="J38" s="5">
+      <c r="I38" s="22"/>
+      <c r="J38" s="5" t="str">
         <f>I38*F38</f>
-        <v>60.72</v>
+        <v>0</v>
       </c>
       <c r="K38" s="22"/>
-      <c r="L38" s="5">
+      <c r="L38" s="5" t="str">
         <f>K38*F38</f>
         <v>0</v>
       </c>
       <c r="M38" s="22"/>
-      <c r="N38" s="5">
+      <c r="N38" s="5" t="str">
         <f>M38*F38</f>
         <v>0</v>
       </c>
       <c r="O38" s="22"/>
-      <c r="P38" s="5">
+      <c r="P38" s="5" t="str">
         <f>O38*F38</f>
         <v>0</v>
       </c>
       <c r="Q38" s="22"/>
-      <c r="R38" s="5">
+      <c r="R38" s="5" t="str">
         <f>Q38*F38</f>
         <v>0</v>
       </c>
@@ -5483,34 +5445,32 @@
         <v>1.59</v>
       </c>
       <c r="G39" s="22"/>
-      <c r="H39" s="5">
+      <c r="H39" s="5" t="str">
         <f>G39*F39</f>
         <v>0</v>
       </c>
-      <c r="I39" s="22">
-        <v>22</v>
-      </c>
-      <c r="J39" s="5">
+      <c r="I39" s="22"/>
+      <c r="J39" s="5" t="str">
         <f>I39*F39</f>
-        <v>34.98</v>
+        <v>0</v>
       </c>
       <c r="K39" s="22"/>
-      <c r="L39" s="5">
+      <c r="L39" s="5" t="str">
         <f>K39*F39</f>
         <v>0</v>
       </c>
       <c r="M39" s="22"/>
-      <c r="N39" s="5">
+      <c r="N39" s="5" t="str">
         <f>M39*F39</f>
         <v>0</v>
       </c>
       <c r="O39" s="22"/>
-      <c r="P39" s="5">
+      <c r="P39" s="5" t="str">
         <f>O39*F39</f>
         <v>0</v>
       </c>
       <c r="Q39" s="22"/>
-      <c r="R39" s="5">
+      <c r="R39" s="5" t="str">
         <f>Q39*F39</f>
         <v>0</v>
       </c>
@@ -5539,34 +5499,32 @@
         <v>2.9</v>
       </c>
       <c r="G40" s="22"/>
-      <c r="H40" s="5">
+      <c r="H40" s="5" t="str">
         <f>G40*F40</f>
         <v>0</v>
       </c>
-      <c r="I40" s="22">
-        <v>25</v>
-      </c>
-      <c r="J40" s="5">
+      <c r="I40" s="22"/>
+      <c r="J40" s="5" t="str">
         <f>I40*F40</f>
-        <v>72.5</v>
+        <v>0</v>
       </c>
       <c r="K40" s="22"/>
-      <c r="L40" s="5">
+      <c r="L40" s="5" t="str">
         <f>K40*F40</f>
         <v>0</v>
       </c>
       <c r="M40" s="22"/>
-      <c r="N40" s="5">
+      <c r="N40" s="5" t="str">
         <f>M40*F40</f>
         <v>0</v>
       </c>
       <c r="O40" s="22"/>
-      <c r="P40" s="5">
+      <c r="P40" s="5" t="str">
         <f>O40*F40</f>
         <v>0</v>
       </c>
       <c r="Q40" s="22"/>
-      <c r="R40" s="5">
+      <c r="R40" s="5" t="str">
         <f>Q40*F40</f>
         <v>0</v>
       </c>
@@ -5595,34 +5553,32 @@
         <v>2.08</v>
       </c>
       <c r="G41" s="29"/>
-      <c r="H41" s="5">
+      <c r="H41" s="5" t="str">
         <f>G41*F41</f>
         <v>0</v>
       </c>
-      <c r="I41" s="55">
-        <v>7</v>
-      </c>
-      <c r="J41" s="5">
+      <c r="I41" s="55"/>
+      <c r="J41" s="5" t="str">
         <f>I41*F41</f>
-        <v>14.56</v>
+        <v>0</v>
       </c>
       <c r="K41" s="48"/>
-      <c r="L41" s="5">
+      <c r="L41" s="5" t="str">
         <f>K41*F41</f>
         <v>0</v>
       </c>
       <c r="M41" s="7"/>
-      <c r="N41" s="5">
+      <c r="N41" s="5" t="str">
         <f>M41*F41</f>
         <v>0</v>
       </c>
       <c r="O41" s="7"/>
-      <c r="P41" s="5">
+      <c r="P41" s="5" t="str">
         <f>O41*F41</f>
         <v>0</v>
       </c>
       <c r="Q41" s="7"/>
-      <c r="R41" s="5">
+      <c r="R41" s="5" t="str">
         <f>Q41*F41</f>
         <v>0</v>
       </c>
@@ -5651,34 +5607,32 @@
         <v>2.08</v>
       </c>
       <c r="G42" s="22"/>
-      <c r="H42" s="5">
+      <c r="H42" s="5" t="str">
         <f>G42*F42</f>
         <v>0</v>
       </c>
-      <c r="I42" s="22">
-        <v>11</v>
-      </c>
-      <c r="J42" s="5">
+      <c r="I42" s="22"/>
+      <c r="J42" s="5" t="str">
         <f>I42*F42</f>
-        <v>22.88</v>
+        <v>0</v>
       </c>
       <c r="K42" s="49"/>
-      <c r="L42" s="5">
+      <c r="L42" s="5" t="str">
         <f>K42*F42</f>
         <v>0</v>
       </c>
       <c r="M42" s="7"/>
-      <c r="N42" s="5">
+      <c r="N42" s="5" t="str">
         <f>M42*F42</f>
         <v>0</v>
       </c>
       <c r="O42" s="7"/>
-      <c r="P42" s="5">
+      <c r="P42" s="5" t="str">
         <f>O42*F42</f>
         <v>0</v>
       </c>
       <c r="Q42" s="7"/>
-      <c r="R42" s="5">
+      <c r="R42" s="5" t="str">
         <f>Q42*F42</f>
         <v>0</v>
       </c>
@@ -5707,34 +5661,32 @@
         <v>0.65</v>
       </c>
       <c r="G43" s="22"/>
-      <c r="H43" s="5">
+      <c r="H43" s="5" t="str">
         <f>G43*F43</f>
         <v>0</v>
       </c>
-      <c r="I43" s="22">
-        <v>154</v>
-      </c>
-      <c r="J43" s="5">
+      <c r="I43" s="22"/>
+      <c r="J43" s="5" t="str">
         <f>I43*F43</f>
-        <v>100.1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="48"/>
-      <c r="L43" s="5">
+      <c r="L43" s="5" t="str">
         <f>K43*F43</f>
         <v>0</v>
       </c>
       <c r="M43" s="7"/>
-      <c r="N43" s="5">
+      <c r="N43" s="5" t="str">
         <f>M43*F43</f>
         <v>0</v>
       </c>
       <c r="O43" s="7"/>
-      <c r="P43" s="5">
+      <c r="P43" s="5" t="str">
         <f>O43*F43</f>
         <v>0</v>
       </c>
       <c r="Q43" s="7"/>
-      <c r="R43" s="5">
+      <c r="R43" s="5" t="str">
         <f>Q43*F43</f>
         <v>0</v>
       </c>
@@ -5763,34 +5715,32 @@
         <v>0.87</v>
       </c>
       <c r="G44" s="22"/>
-      <c r="H44" s="5">
+      <c r="H44" s="5" t="str">
         <f>G44*F44</f>
         <v>0</v>
       </c>
-      <c r="I44" s="22">
-        <v>15</v>
-      </c>
-      <c r="J44" s="5">
+      <c r="I44" s="22"/>
+      <c r="J44" s="5" t="str">
         <f>I44*F44</f>
-        <v>13.05</v>
+        <v>0</v>
       </c>
       <c r="K44" s="48"/>
-      <c r="L44" s="5">
+      <c r="L44" s="5" t="str">
         <f>K44*F44</f>
         <v>0</v>
       </c>
       <c r="M44" s="7"/>
-      <c r="N44" s="5">
+      <c r="N44" s="5" t="str">
         <f>M44*F44</f>
         <v>0</v>
       </c>
       <c r="O44" s="7"/>
-      <c r="P44" s="5">
+      <c r="P44" s="5" t="str">
         <f>O44*F44</f>
         <v>0</v>
       </c>
       <c r="Q44" s="7"/>
-      <c r="R44" s="5">
+      <c r="R44" s="5" t="str">
         <f>Q44*F44</f>
         <v>0</v>
       </c>
@@ -5819,34 +5769,32 @@
         <v>0.87</v>
       </c>
       <c r="G45" s="22"/>
-      <c r="H45" s="5">
+      <c r="H45" s="5" t="str">
         <f>G45*F45</f>
         <v>0</v>
       </c>
-      <c r="I45" s="22">
-        <v>15</v>
-      </c>
-      <c r="J45" s="5">
+      <c r="I45" s="22"/>
+      <c r="J45" s="5" t="str">
         <f>I45*F45</f>
-        <v>13.05</v>
+        <v>0</v>
       </c>
       <c r="K45" s="48"/>
-      <c r="L45" s="5">
+      <c r="L45" s="5" t="str">
         <f>K45*F45</f>
         <v>0</v>
       </c>
       <c r="M45" s="7"/>
-      <c r="N45" s="5">
+      <c r="N45" s="5" t="str">
         <f>M45*F45</f>
         <v>0</v>
       </c>
       <c r="O45" s="7"/>
-      <c r="P45" s="5">
+      <c r="P45" s="5" t="str">
         <f>O45*F45</f>
         <v>0</v>
       </c>
       <c r="Q45" s="7"/>
-      <c r="R45" s="5">
+      <c r="R45" s="5" t="str">
         <f>Q45*F45</f>
         <v>0</v>
       </c>
@@ -5911,34 +5859,32 @@
         <v>1.45</v>
       </c>
       <c r="G47" s="22"/>
-      <c r="H47" s="5">
+      <c r="H47" s="5" t="str">
         <f>G47*F47</f>
         <v>0</v>
       </c>
-      <c r="I47" s="22">
-        <v>66</v>
-      </c>
-      <c r="J47" s="5">
+      <c r="I47" s="22"/>
+      <c r="J47" s="5" t="str">
         <f>I47*F47</f>
-        <v>95.7</v>
+        <v>0</v>
       </c>
       <c r="K47" s="55"/>
-      <c r="L47" s="5">
+      <c r="L47" s="5" t="str">
         <f>K47*F47</f>
         <v>0</v>
       </c>
       <c r="M47" s="7"/>
-      <c r="N47" s="5">
+      <c r="N47" s="5" t="str">
         <f>M47*F47</f>
         <v>0</v>
       </c>
       <c r="O47" s="7"/>
-      <c r="P47" s="5">
+      <c r="P47" s="5" t="str">
         <f>O47*F47</f>
         <v>0</v>
       </c>
       <c r="Q47" s="7"/>
-      <c r="R47" s="5">
+      <c r="R47" s="5" t="str">
         <f>Q47*F47</f>
         <v>0</v>
       </c>
@@ -5967,34 +5913,32 @@
         <v>1.45</v>
       </c>
       <c r="G48" s="22"/>
-      <c r="H48" s="5">
+      <c r="H48" s="5" t="str">
         <f>G48*F48</f>
         <v>0</v>
       </c>
-      <c r="I48" s="22">
-        <v>88</v>
-      </c>
-      <c r="J48" s="5">
+      <c r="I48" s="22"/>
+      <c r="J48" s="5" t="str">
         <f>I48*F48</f>
-        <v>127.6</v>
+        <v>0</v>
       </c>
       <c r="K48" s="54"/>
-      <c r="L48" s="5">
+      <c r="L48" s="5" t="str">
         <f>K48*F48</f>
         <v>0</v>
       </c>
       <c r="M48" s="7"/>
-      <c r="N48" s="5">
+      <c r="N48" s="5" t="str">
         <f>M48*F48</f>
         <v>0</v>
       </c>
       <c r="O48" s="7"/>
-      <c r="P48" s="5">
+      <c r="P48" s="5" t="str">
         <f>O48*F48</f>
         <v>0</v>
       </c>
       <c r="Q48" s="7"/>
-      <c r="R48" s="5">
+      <c r="R48" s="5" t="str">
         <f>Q48*F48</f>
         <v>0</v>
       </c>
@@ -6023,34 +5967,32 @@
         <v>1.15</v>
       </c>
       <c r="G49" s="22"/>
-      <c r="H49" s="5">
+      <c r="H49" s="5" t="str">
         <f>G49*F49</f>
         <v>0</v>
       </c>
-      <c r="I49" s="22">
-        <v>19</v>
-      </c>
-      <c r="J49" s="5">
+      <c r="I49" s="22"/>
+      <c r="J49" s="5" t="str">
         <f>I49*F49</f>
-        <v>21.85</v>
+        <v>0</v>
       </c>
       <c r="K49" s="48"/>
-      <c r="L49" s="5">
+      <c r="L49" s="5" t="str">
         <f>K49*F49</f>
         <v>0</v>
       </c>
       <c r="M49" s="7"/>
-      <c r="N49" s="5">
+      <c r="N49" s="5" t="str">
         <f>M49*F49</f>
         <v>0</v>
       </c>
       <c r="O49" s="7"/>
-      <c r="P49" s="5">
+      <c r="P49" s="5" t="str">
         <f>O49*F49</f>
         <v>0</v>
       </c>
       <c r="Q49" s="7"/>
-      <c r="R49" s="5">
+      <c r="R49" s="5" t="str">
         <f>Q49*F49</f>
         <v>0</v>
       </c>
@@ -6079,34 +6021,32 @@
         <v>1.37</v>
       </c>
       <c r="G50" s="22"/>
-      <c r="H50" s="5">
+      <c r="H50" s="5" t="str">
         <f>G50*F50</f>
         <v>0</v>
       </c>
-      <c r="I50" s="22">
-        <v>25</v>
-      </c>
-      <c r="J50" s="5">
+      <c r="I50" s="22"/>
+      <c r="J50" s="5" t="str">
         <f>I50*F50</f>
-        <v>34.25</v>
+        <v>0</v>
       </c>
       <c r="K50" s="48"/>
-      <c r="L50" s="5">
+      <c r="L50" s="5" t="str">
         <f>K50*F50</f>
         <v>0</v>
       </c>
       <c r="M50" s="7"/>
-      <c r="N50" s="5">
+      <c r="N50" s="5" t="str">
         <f>M50*F50</f>
         <v>0</v>
       </c>
       <c r="O50" s="7"/>
-      <c r="P50" s="5">
+      <c r="P50" s="5" t="str">
         <f>O50*F50</f>
         <v>0</v>
       </c>
       <c r="Q50" s="7"/>
-      <c r="R50" s="5">
+      <c r="R50" s="5" t="str">
         <f>Q50*F50</f>
         <v>0</v>
       </c>
@@ -6135,34 +6075,32 @@
         <v>1.64</v>
       </c>
       <c r="G51" s="22"/>
-      <c r="H51" s="5">
+      <c r="H51" s="5" t="str">
         <f>G51*F51</f>
         <v>0</v>
       </c>
-      <c r="I51" s="22">
-        <v>5</v>
-      </c>
-      <c r="J51" s="5">
+      <c r="I51" s="22"/>
+      <c r="J51" s="5" t="str">
         <f>I51*F51</f>
-        <v>8.2</v>
+        <v>0</v>
       </c>
       <c r="K51" s="7"/>
-      <c r="L51" s="5">
+      <c r="L51" s="5" t="str">
         <f>K51*F51</f>
         <v>0</v>
       </c>
       <c r="M51" s="7"/>
-      <c r="N51" s="5">
+      <c r="N51" s="5" t="str">
         <f>M51*F51</f>
         <v>0</v>
       </c>
       <c r="O51" s="7"/>
-      <c r="P51" s="5">
+      <c r="P51" s="5" t="str">
         <f>O51*F51</f>
         <v>0</v>
       </c>
       <c r="Q51" s="7"/>
-      <c r="R51" s="5">
+      <c r="R51" s="5" t="str">
         <f>Q51*F51</f>
         <v>0</v>
       </c>
@@ -6191,34 +6129,32 @@
         <v>0.64</v>
       </c>
       <c r="G52" s="29"/>
-      <c r="H52" s="5">
+      <c r="H52" s="5" t="str">
         <f>G52*F52</f>
         <v>0</v>
       </c>
-      <c r="I52" s="22">
-        <v>44</v>
-      </c>
-      <c r="J52" s="5">
+      <c r="I52" s="22"/>
+      <c r="J52" s="5" t="str">
         <f>I52*F52</f>
-        <v>28.16</v>
+        <v>0</v>
       </c>
       <c r="K52" s="48"/>
-      <c r="L52" s="5">
+      <c r="L52" s="5" t="str">
         <f>K52*F52</f>
         <v>0</v>
       </c>
       <c r="M52" s="7"/>
-      <c r="N52" s="5">
+      <c r="N52" s="5" t="str">
         <f>M52*F52</f>
         <v>0</v>
       </c>
       <c r="O52" s="7"/>
-      <c r="P52" s="5">
+      <c r="P52" s="5" t="str">
         <f>O52*F52</f>
         <v>0</v>
       </c>
       <c r="Q52" s="7"/>
-      <c r="R52" s="5">
+      <c r="R52" s="5" t="str">
         <f>Q52*F52</f>
         <v>0</v>
       </c>
@@ -6247,32 +6183,32 @@
         <v>2.96</v>
       </c>
       <c r="G53" s="29"/>
-      <c r="H53" s="5">
+      <c r="H53" s="5" t="str">
         <f>G53*F53</f>
         <v>0</v>
       </c>
       <c r="I53" s="22"/>
-      <c r="J53" s="5">
+      <c r="J53" s="5" t="str">
         <f>I53*F53</f>
         <v>0</v>
       </c>
       <c r="K53" s="7"/>
-      <c r="L53" s="5">
+      <c r="L53" s="5" t="str">
         <f>K53*F53</f>
         <v>0</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="5">
+      <c r="N53" s="5" t="str">
         <f>M53*F53</f>
         <v>0</v>
       </c>
       <c r="O53" s="7"/>
-      <c r="P53" s="5">
+      <c r="P53" s="5" t="str">
         <f>O53*F53</f>
         <v>0</v>
       </c>
       <c r="Q53" s="7"/>
-      <c r="R53" s="5">
+      <c r="R53" s="5" t="str">
         <f>Q53*F53</f>
         <v>0</v>
       </c>
@@ -6301,32 +6237,32 @@
         <v>2.36</v>
       </c>
       <c r="G54" s="49"/>
-      <c r="H54" s="5">
+      <c r="H54" s="5" t="str">
         <f>G54*F54</f>
         <v>0</v>
       </c>
       <c r="I54" s="22"/>
-      <c r="J54" s="5">
+      <c r="J54" s="5" t="str">
         <f>I54*F54</f>
         <v>0</v>
       </c>
       <c r="K54" s="22"/>
-      <c r="L54" s="5">
+      <c r="L54" s="5" t="str">
         <f>K54*F54</f>
         <v>0</v>
       </c>
       <c r="M54" s="22"/>
-      <c r="N54" s="5">
+      <c r="N54" s="5" t="str">
         <f>M54*F54</f>
         <v>0</v>
       </c>
       <c r="O54" s="7"/>
-      <c r="P54" s="5">
+      <c r="P54" s="5" t="str">
         <f>O54*F54</f>
         <v>0</v>
       </c>
       <c r="Q54" s="7"/>
-      <c r="R54" s="5">
+      <c r="R54" s="5" t="str">
         <f>Q54*F54</f>
         <v>0</v>
       </c>
@@ -6355,32 +6291,32 @@
         <v>1.84</v>
       </c>
       <c r="G55" s="29"/>
-      <c r="H55" s="5">
+      <c r="H55" s="5" t="str">
         <f>G55*F55</f>
         <v>0</v>
       </c>
       <c r="I55" s="22"/>
-      <c r="J55" s="5">
+      <c r="J55" s="5" t="str">
         <f>I55*F55</f>
         <v>0</v>
       </c>
       <c r="K55" s="22"/>
-      <c r="L55" s="5">
+      <c r="L55" s="5" t="str">
         <f>K55*F55</f>
         <v>0</v>
       </c>
       <c r="M55" s="22"/>
-      <c r="N55" s="5">
+      <c r="N55" s="5" t="str">
         <f>M55*F55</f>
         <v>0</v>
       </c>
       <c r="O55" s="7"/>
-      <c r="P55" s="5">
+      <c r="P55" s="5" t="str">
         <f>O55*F55</f>
         <v>0</v>
       </c>
       <c r="Q55" s="7"/>
-      <c r="R55" s="5">
+      <c r="R55" s="5" t="str">
         <f>Q55*F55</f>
         <v>0</v>
       </c>
@@ -6444,35 +6380,33 @@
       <c r="F57" s="47">
         <v>1.27</v>
       </c>
-      <c r="G57" s="22">
-        <v>66</v>
-      </c>
-      <c r="H57" s="5">
+      <c r="G57" s="22"/>
+      <c r="H57" s="5" t="str">
         <f>G57*F57</f>
-        <v>83.82</v>
+        <v>0</v>
       </c>
       <c r="I57" s="22"/>
-      <c r="J57" s="5">
+      <c r="J57" s="5" t="str">
         <f>I57*F57</f>
         <v>0</v>
       </c>
       <c r="K57" s="22"/>
-      <c r="L57" s="5">
+      <c r="L57" s="5" t="str">
         <f>K57*F57</f>
         <v>0</v>
       </c>
       <c r="M57" s="22"/>
-      <c r="N57" s="56">
+      <c r="N57" s="56" t="str">
         <f>M57*F57</f>
         <v>0</v>
       </c>
       <c r="O57" s="22"/>
-      <c r="P57" s="5">
+      <c r="P57" s="5" t="str">
         <f>O57*F57</f>
         <v>0</v>
       </c>
       <c r="Q57" s="7"/>
-      <c r="R57" s="5">
+      <c r="R57" s="5" t="str">
         <f>Q57*F57</f>
         <v>0</v>
       </c>
@@ -6500,35 +6434,33 @@
       <c r="F58" s="47">
         <v>1.27</v>
       </c>
-      <c r="G58" s="22">
-        <v>88</v>
-      </c>
-      <c r="H58" s="5">
+      <c r="G58" s="22"/>
+      <c r="H58" s="5" t="str">
         <f>G58*F58</f>
-        <v>111.76</v>
+        <v>0</v>
       </c>
       <c r="I58" s="22"/>
-      <c r="J58" s="5">
+      <c r="J58" s="5" t="str">
         <f>I58*F58</f>
         <v>0</v>
       </c>
       <c r="K58" s="22"/>
-      <c r="L58" s="5">
+      <c r="L58" s="5" t="str">
         <f>K58*F58</f>
         <v>0</v>
       </c>
       <c r="M58" s="22"/>
-      <c r="N58" s="5">
+      <c r="N58" s="5" t="str">
         <f>M58*F58</f>
         <v>0</v>
       </c>
       <c r="O58" s="22"/>
-      <c r="P58" s="5">
+      <c r="P58" s="5" t="str">
         <f>O58*F58</f>
         <v>0</v>
       </c>
       <c r="Q58" s="7"/>
-      <c r="R58" s="5">
+      <c r="R58" s="5" t="str">
         <f>Q58*F58</f>
         <v>0</v>
       </c>
@@ -6556,35 +6488,33 @@
       <c r="F59" s="39">
         <v>0.98</v>
       </c>
-      <c r="G59" s="22">
-        <v>19</v>
-      </c>
-      <c r="H59" s="5">
+      <c r="G59" s="22"/>
+      <c r="H59" s="5" t="str">
         <f>G59*F59</f>
-        <v>18.62</v>
+        <v>0</v>
       </c>
       <c r="I59" s="22"/>
-      <c r="J59" s="5">
+      <c r="J59" s="5" t="str">
         <f>I59*F59</f>
         <v>0</v>
       </c>
       <c r="K59" s="22"/>
-      <c r="L59" s="5">
+      <c r="L59" s="5" t="str">
         <f>K59*F59</f>
         <v>0</v>
       </c>
       <c r="M59" s="7"/>
-      <c r="N59" s="5">
+      <c r="N59" s="5" t="str">
         <f>M59*F59</f>
         <v>0</v>
       </c>
       <c r="O59" s="22"/>
-      <c r="P59" s="5">
+      <c r="P59" s="5" t="str">
         <f>O59*F59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="7"/>
-      <c r="R59" s="5">
+      <c r="R59" s="5" t="str">
         <f>Q59*F59</f>
         <v>0</v>
       </c>
@@ -6612,35 +6542,33 @@
       <c r="F60" s="39">
         <v>1.2</v>
       </c>
-      <c r="G60" s="22">
-        <v>25</v>
-      </c>
-      <c r="H60" s="5">
+      <c r="G60" s="22"/>
+      <c r="H60" s="5" t="str">
         <f>G60*F60</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I60" s="22"/>
-      <c r="J60" s="5">
+      <c r="J60" s="5" t="str">
         <f>I60*F60</f>
         <v>0</v>
       </c>
       <c r="K60" s="22"/>
-      <c r="L60" s="5">
+      <c r="L60" s="5" t="str">
         <f>K60*F60</f>
         <v>0</v>
       </c>
       <c r="M60" s="7"/>
-      <c r="N60" s="5">
+      <c r="N60" s="5" t="str">
         <f>M60*F60</f>
         <v>0</v>
       </c>
       <c r="O60" s="22"/>
-      <c r="P60" s="5">
+      <c r="P60" s="5" t="str">
         <f>O60*F60</f>
         <v>0</v>
       </c>
       <c r="Q60" s="22"/>
-      <c r="R60" s="5">
+      <c r="R60" s="5" t="str">
         <f>Q60*F60</f>
         <v>0</v>
       </c>
@@ -6668,35 +6596,33 @@
       <c r="F61" s="39">
         <v>1.47</v>
       </c>
-      <c r="G61" s="29">
-        <v>5</v>
-      </c>
-      <c r="H61" s="5">
+      <c r="G61" s="29"/>
+      <c r="H61" s="5" t="str">
         <f>G61*F61</f>
-        <v>7.35</v>
+        <v>0</v>
       </c>
       <c r="I61" s="22"/>
-      <c r="J61" s="5">
+      <c r="J61" s="5" t="str">
         <f>I61*F61</f>
         <v>0</v>
       </c>
       <c r="K61" s="22"/>
-      <c r="L61" s="5">
+      <c r="L61" s="5" t="str">
         <f>K61*F61</f>
         <v>0</v>
       </c>
       <c r="M61" s="7"/>
-      <c r="N61" s="5">
+      <c r="N61" s="5" t="str">
         <f>M61*F61</f>
         <v>0</v>
       </c>
       <c r="O61" s="22"/>
-      <c r="P61" s="5">
+      <c r="P61" s="5" t="str">
         <f>O61*F61</f>
         <v>0</v>
       </c>
       <c r="Q61" s="7"/>
-      <c r="R61" s="5">
+      <c r="R61" s="5" t="str">
         <f>Q61*F61</f>
         <v>0</v>
       </c>
@@ -6724,35 +6650,33 @@
       <c r="F62" s="39">
         <v>0.54</v>
       </c>
-      <c r="G62" s="22">
-        <v>44</v>
-      </c>
-      <c r="H62" s="5">
+      <c r="G62" s="22"/>
+      <c r="H62" s="5" t="str">
         <f>G62*F62</f>
-        <v>23.76</v>
+        <v>0</v>
       </c>
       <c r="I62" s="22"/>
-      <c r="J62" s="5">
+      <c r="J62" s="5" t="str">
         <f>I62*F62</f>
         <v>0</v>
       </c>
       <c r="K62" s="22"/>
-      <c r="L62" s="5">
+      <c r="L62" s="5" t="str">
         <f>K62*F62</f>
         <v>0</v>
       </c>
       <c r="M62" s="7"/>
-      <c r="N62" s="5">
+      <c r="N62" s="5" t="str">
         <f>M62*F62</f>
         <v>0</v>
       </c>
       <c r="O62" s="22"/>
-      <c r="P62" s="5">
+      <c r="P62" s="5" t="str">
         <f>O62*F62</f>
         <v>0</v>
       </c>
       <c r="Q62" s="7"/>
-      <c r="R62" s="5">
+      <c r="R62" s="5" t="str">
         <f>Q62*F62</f>
         <v>0</v>
       </c>
@@ -6781,32 +6705,32 @@
         <v>1.96</v>
       </c>
       <c r="G63" s="22"/>
-      <c r="H63" s="5">
+      <c r="H63" s="5" t="str">
         <f>G63*F63</f>
         <v>0</v>
       </c>
       <c r="I63" s="22"/>
-      <c r="J63" s="5">
+      <c r="J63" s="5" t="str">
         <f>I63*F63</f>
         <v>0</v>
       </c>
       <c r="K63" s="22"/>
-      <c r="L63" s="5">
+      <c r="L63" s="5" t="str">
         <f>K63*F63</f>
         <v>0</v>
       </c>
       <c r="M63" s="7"/>
-      <c r="N63" s="5">
+      <c r="N63" s="5" t="str">
         <f>M63*F63</f>
         <v>0</v>
       </c>
       <c r="O63" s="22"/>
-      <c r="P63" s="5">
+      <c r="P63" s="5" t="str">
         <f>O63*F63</f>
         <v>0</v>
       </c>
       <c r="Q63" s="7"/>
-      <c r="R63" s="5">
+      <c r="R63" s="5" t="str">
         <f>Q63*F63</f>
         <v>0</v>
       </c>
@@ -6835,32 +6759,32 @@
         <v>0.98</v>
       </c>
       <c r="G64" s="22"/>
-      <c r="H64" s="5">
+      <c r="H64" s="5" t="str">
         <f>G64*F64</f>
         <v>0</v>
       </c>
       <c r="I64" s="22"/>
-      <c r="J64" s="5">
+      <c r="J64" s="5" t="str">
         <f>I64*F64</f>
         <v>0</v>
       </c>
       <c r="K64" s="22"/>
-      <c r="L64" s="5">
+      <c r="L64" s="5" t="str">
         <f>K64*F64</f>
         <v>0</v>
       </c>
       <c r="M64" s="22"/>
-      <c r="N64" s="5">
+      <c r="N64" s="5" t="str">
         <f>M64*F64</f>
         <v>0</v>
       </c>
       <c r="O64" s="22"/>
-      <c r="P64" s="5">
+      <c r="P64" s="5" t="str">
         <f>O64*F64</f>
         <v>0</v>
       </c>
       <c r="Q64" s="22"/>
-      <c r="R64" s="5">
+      <c r="R64" s="5" t="str">
         <f>Q64*F64</f>
         <v>0</v>
       </c>
@@ -6925,34 +6849,32 @@
         <v>0.95</v>
       </c>
       <c r="G66" s="22"/>
-      <c r="H66" s="5">
+      <c r="H66" s="5" t="str">
         <f>G66*F66</f>
         <v>0</v>
       </c>
       <c r="I66" s="22"/>
-      <c r="J66" s="5">
+      <c r="J66" s="5" t="str">
         <f>I66*F66</f>
         <v>0</v>
       </c>
-      <c r="K66" s="22">
-        <v>66</v>
-      </c>
-      <c r="L66" s="5">
+      <c r="K66" s="22"/>
+      <c r="L66" s="5" t="str">
         <f>K66*F66</f>
-        <v>62.7</v>
+        <v>0</v>
       </c>
       <c r="M66" s="22"/>
-      <c r="N66" s="5">
+      <c r="N66" s="5" t="str">
         <f>M66*F66</f>
         <v>0</v>
       </c>
       <c r="O66" s="22"/>
-      <c r="P66" s="5">
+      <c r="P66" s="5" t="str">
         <f>O66*F66</f>
         <v>0</v>
       </c>
       <c r="Q66" s="22"/>
-      <c r="R66" s="5">
+      <c r="R66" s="5" t="str">
         <f>Q66*F66</f>
         <v>0</v>
       </c>
@@ -6981,34 +6903,32 @@
         <v>0.76</v>
       </c>
       <c r="G67" s="22"/>
-      <c r="H67" s="5">
+      <c r="H67" s="5" t="str">
         <f>G67*F67</f>
         <v>0</v>
       </c>
       <c r="I67" s="22"/>
-      <c r="J67" s="5">
+      <c r="J67" s="5" t="str">
         <f>I67*F67</f>
         <v>0</v>
       </c>
-      <c r="K67" s="22">
-        <v>19</v>
-      </c>
-      <c r="L67" s="5">
+      <c r="K67" s="22"/>
+      <c r="L67" s="5" t="str">
         <f>K67*F67</f>
-        <v>14.44</v>
+        <v>0</v>
       </c>
       <c r="M67" s="22"/>
-      <c r="N67" s="5">
+      <c r="N67" s="5" t="str">
         <f>M67*F67</f>
         <v>0</v>
       </c>
       <c r="O67" s="22"/>
-      <c r="P67" s="5">
+      <c r="P67" s="5" t="str">
         <f>O67*F67</f>
         <v>0</v>
       </c>
       <c r="Q67" s="22"/>
-      <c r="R67" s="5">
+      <c r="R67" s="5" t="str">
         <f>Q67*F67</f>
         <v>0</v>
       </c>
@@ -7037,34 +6957,32 @@
         <v>0.98</v>
       </c>
       <c r="G68" s="22"/>
-      <c r="H68" s="5">
+      <c r="H68" s="5" t="str">
         <f>G68*F68</f>
         <v>0</v>
       </c>
       <c r="I68" s="22"/>
-      <c r="J68" s="5">
+      <c r="J68" s="5" t="str">
         <f>I68*F68</f>
         <v>0</v>
       </c>
-      <c r="K68" s="22">
-        <v>25</v>
-      </c>
-      <c r="L68" s="5">
+      <c r="K68" s="22"/>
+      <c r="L68" s="5" t="str">
         <f>K68*F68</f>
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="M68" s="22"/>
-      <c r="N68" s="5">
+      <c r="N68" s="5" t="str">
         <f>M68*F68</f>
         <v>0</v>
       </c>
       <c r="O68" s="22"/>
-      <c r="P68" s="5">
+      <c r="P68" s="5" t="str">
         <f>O68*F68</f>
         <v>0</v>
       </c>
       <c r="Q68" s="22"/>
-      <c r="R68" s="5">
+      <c r="R68" s="5" t="str">
         <f>Q68*F68</f>
         <v>0</v>
       </c>
@@ -7093,34 +7011,32 @@
         <v>0.43</v>
       </c>
       <c r="G69" s="22"/>
-      <c r="H69" s="5">
+      <c r="H69" s="5" t="str">
         <f>G69*F69</f>
         <v>0</v>
       </c>
       <c r="I69" s="22"/>
-      <c r="J69" s="5">
+      <c r="J69" s="5" t="str">
         <f>I69*F69</f>
         <v>0</v>
       </c>
-      <c r="K69" s="22">
-        <v>44</v>
-      </c>
-      <c r="L69" s="5">
+      <c r="K69" s="22"/>
+      <c r="L69" s="5" t="str">
         <f>K69*F69</f>
-        <v>18.92</v>
+        <v>0</v>
       </c>
       <c r="M69" s="22"/>
-      <c r="N69" s="5">
+      <c r="N69" s="5" t="str">
         <f>M69*F69</f>
         <v>0</v>
       </c>
       <c r="O69" s="22"/>
-      <c r="P69" s="5">
+      <c r="P69" s="5" t="str">
         <f>O69*F69</f>
         <v>0</v>
       </c>
       <c r="Q69" s="22"/>
-      <c r="R69" s="5">
+      <c r="R69" s="5" t="str">
         <f>Q69*F69</f>
         <v>0</v>
       </c>
@@ -7149,32 +7065,32 @@
         <v>1.28</v>
       </c>
       <c r="G70" s="22"/>
-      <c r="H70" s="5">
+      <c r="H70" s="5" t="str">
         <f>G70*F70</f>
         <v>0</v>
       </c>
       <c r="I70" s="22"/>
-      <c r="J70" s="5">
+      <c r="J70" s="5" t="str">
         <f>I70*F70</f>
         <v>0</v>
       </c>
       <c r="K70" s="22"/>
-      <c r="L70" s="5">
+      <c r="L70" s="5" t="str">
         <f>K70*F70</f>
         <v>0</v>
       </c>
       <c r="M70" s="22"/>
-      <c r="N70" s="5">
+      <c r="N70" s="5" t="str">
         <f>M70*F70</f>
         <v>0</v>
       </c>
       <c r="O70" s="22"/>
-      <c r="P70" s="5">
+      <c r="P70" s="5" t="str">
         <f>O70*F70</f>
         <v>0</v>
       </c>
       <c r="Q70" s="22"/>
-      <c r="R70" s="5">
+      <c r="R70" s="5" t="str">
         <f>Q70*F70</f>
         <v>0</v>
       </c>
@@ -7203,32 +7119,32 @@
         <v>1.13</v>
       </c>
       <c r="G71" s="22"/>
-      <c r="H71" s="5">
+      <c r="H71" s="5" t="str">
         <f>G71*F71</f>
         <v>0</v>
       </c>
       <c r="I71" s="22"/>
-      <c r="J71" s="5">
+      <c r="J71" s="5" t="str">
         <f>I71*F71</f>
         <v>0</v>
       </c>
       <c r="K71" s="22"/>
-      <c r="L71" s="5">
+      <c r="L71" s="5" t="str">
         <f>K71*F71</f>
         <v>0</v>
       </c>
       <c r="M71" s="22"/>
-      <c r="N71" s="5">
+      <c r="N71" s="5" t="str">
         <f>M71*F71</f>
         <v>0</v>
       </c>
       <c r="O71" s="22"/>
-      <c r="P71" s="5">
+      <c r="P71" s="5" t="str">
         <f>O71*F71</f>
         <v>0</v>
       </c>
       <c r="Q71" s="22"/>
-      <c r="R71" s="5">
+      <c r="R71" s="5" t="str">
         <f>Q71*F71</f>
         <v>0</v>
       </c>
@@ -7251,32 +7167,32 @@
       </c>
       <c r="F72" s="62"/>
       <c r="G72" s="22"/>
-      <c r="H72" s="5">
+      <c r="H72" s="5" t="str">
         <f>G72*F72</f>
         <v>0</v>
       </c>
       <c r="I72" s="22"/>
-      <c r="J72" s="5">
+      <c r="J72" s="5" t="str">
         <f>I72*F72</f>
         <v>0</v>
       </c>
       <c r="K72" s="22"/>
-      <c r="L72" s="5">
+      <c r="L72" s="5" t="str">
         <f>K72*F72</f>
         <v>0</v>
       </c>
       <c r="M72" s="22"/>
-      <c r="N72" s="5">
+      <c r="N72" s="5" t="str">
         <f>M72*F72</f>
         <v>0</v>
       </c>
       <c r="O72" s="22"/>
-      <c r="P72" s="5">
+      <c r="P72" s="5" t="str">
         <f>O72*F72</f>
         <v>0</v>
       </c>
       <c r="Q72" s="22"/>
-      <c r="R72" s="5">
+      <c r="R72" s="5" t="str">
         <f>Q72*F72</f>
         <v>0</v>
       </c>
@@ -7331,32 +7247,32 @@
       </c>
       <c r="F74" s="72"/>
       <c r="G74" s="29"/>
-      <c r="H74" s="5">
+      <c r="H74" s="5" t="str">
         <f>G74*F74</f>
         <v>0</v>
       </c>
       <c r="I74" s="22"/>
-      <c r="J74" s="5">
+      <c r="J74" s="5" t="str">
         <f>I74*F74</f>
         <v>0</v>
       </c>
       <c r="K74" s="7"/>
-      <c r="L74" s="5">
+      <c r="L74" s="5" t="str">
         <f>K74*F74</f>
         <v>0</v>
       </c>
       <c r="M74" s="7"/>
-      <c r="N74" s="5">
+      <c r="N74" s="5" t="str">
         <f>M74*F74</f>
         <v>0</v>
       </c>
       <c r="O74" s="7"/>
-      <c r="P74" s="5">
+      <c r="P74" s="5" t="str">
         <f>O74*F74</f>
         <v>0</v>
       </c>
       <c r="Q74" s="7"/>
-      <c r="R74" s="5">
+      <c r="R74" s="5" t="str">
         <f>Q74*F74</f>
         <v>0</v>
       </c>
@@ -7383,32 +7299,32 @@
         <v>1.4</v>
       </c>
       <c r="G75" s="29"/>
-      <c r="H75" s="5">
+      <c r="H75" s="5" t="str">
         <f>G75*F75</f>
         <v>0</v>
       </c>
       <c r="I75" s="22"/>
-      <c r="J75" s="5">
+      <c r="J75" s="5" t="str">
         <f>I75*F75</f>
         <v>0</v>
       </c>
       <c r="K75" s="7"/>
-      <c r="L75" s="5">
+      <c r="L75" s="5" t="str">
         <f>K75*F75</f>
         <v>0</v>
       </c>
       <c r="M75" s="7"/>
-      <c r="N75" s="5">
+      <c r="N75" s="5" t="str">
         <f>M75*F75</f>
         <v>0</v>
       </c>
       <c r="O75" s="7"/>
-      <c r="P75" s="5">
+      <c r="P75" s="5" t="str">
         <f>O75*F75</f>
         <v>0</v>
       </c>
       <c r="Q75" s="7"/>
-      <c r="R75" s="5">
+      <c r="R75" s="5" t="str">
         <f>Q75*F75</f>
         <v>0</v>
       </c>
@@ -7437,32 +7353,32 @@
         <v>0.61</v>
       </c>
       <c r="G76" s="29"/>
-      <c r="H76" s="5">
+      <c r="H76" s="5" t="str">
         <f>G76*F76</f>
         <v>0</v>
       </c>
       <c r="I76" s="22"/>
-      <c r="J76" s="5">
+      <c r="J76" s="5" t="str">
         <f>I76*F76</f>
         <v>0</v>
       </c>
       <c r="K76" s="7"/>
-      <c r="L76" s="5">
+      <c r="L76" s="5" t="str">
         <f>K76*F76</f>
         <v>0</v>
       </c>
       <c r="M76" s="7"/>
-      <c r="N76" s="5">
+      <c r="N76" s="5" t="str">
         <f>M76*F76</f>
         <v>0</v>
       </c>
       <c r="O76" s="7"/>
-      <c r="P76" s="5">
+      <c r="P76" s="5" t="str">
         <f>O76*F76</f>
         <v>0</v>
       </c>
       <c r="Q76" s="7"/>
-      <c r="R76" s="5">
+      <c r="R76" s="5" t="str">
         <f>Q76*F76</f>
         <v>0</v>
       </c>
@@ -7491,32 +7407,32 @@
         <v>1.08</v>
       </c>
       <c r="G77" s="29"/>
-      <c r="H77" s="5">
+      <c r="H77" s="5" t="str">
         <f>G77*F77</f>
         <v>0</v>
       </c>
       <c r="I77" s="22"/>
-      <c r="J77" s="5">
+      <c r="J77" s="5" t="str">
         <f>I77*F77</f>
         <v>0</v>
       </c>
       <c r="K77" s="7"/>
-      <c r="L77" s="5">
+      <c r="L77" s="5" t="str">
         <f>K77*F77</f>
         <v>0</v>
       </c>
       <c r="M77" s="7"/>
-      <c r="N77" s="5">
+      <c r="N77" s="5" t="str">
         <f>M77*F77</f>
         <v>0</v>
       </c>
       <c r="O77" s="7"/>
-      <c r="P77" s="5">
+      <c r="P77" s="5" t="str">
         <f>O77*F77</f>
         <v>0</v>
       </c>
       <c r="Q77" s="7"/>
-      <c r="R77" s="5">
+      <c r="R77" s="5" t="str">
         <f>Q77*F77</f>
         <v>0</v>
       </c>
@@ -7545,32 +7461,32 @@
         <v>0.83</v>
       </c>
       <c r="G78" s="29"/>
-      <c r="H78" s="5">
+      <c r="H78" s="5" t="str">
         <f>G78*F78</f>
         <v>0</v>
       </c>
       <c r="I78" s="22"/>
-      <c r="J78" s="5">
+      <c r="J78" s="5" t="str">
         <f>I78*F78</f>
         <v>0</v>
       </c>
       <c r="K78" s="7"/>
-      <c r="L78" s="5">
+      <c r="L78" s="5" t="str">
         <f>K78*F78</f>
         <v>0</v>
       </c>
       <c r="M78" s="7"/>
-      <c r="N78" s="5">
+      <c r="N78" s="5" t="str">
         <f>M78*F78</f>
         <v>0</v>
       </c>
       <c r="O78" s="7"/>
-      <c r="P78" s="5">
+      <c r="P78" s="5" t="str">
         <f>O78*F78</f>
         <v>0</v>
       </c>
       <c r="Q78" s="7"/>
-      <c r="R78" s="5">
+      <c r="R78" s="5" t="str">
         <f>Q78*F78</f>
         <v>0</v>
       </c>
@@ -7597,32 +7513,32 @@
         <v>0.4</v>
       </c>
       <c r="G79" s="51"/>
-      <c r="H79" s="5">
+      <c r="H79" s="5" t="str">
         <f>G79*F79</f>
         <v>0</v>
       </c>
       <c r="I79" s="22"/>
-      <c r="J79" s="5">
+      <c r="J79" s="5" t="str">
         <f>I79*F79</f>
         <v>0</v>
       </c>
       <c r="K79" s="7"/>
-      <c r="L79" s="5">
+      <c r="L79" s="5" t="str">
         <f>K79*F79</f>
         <v>0</v>
       </c>
       <c r="M79" s="7"/>
-      <c r="N79" s="5">
+      <c r="N79" s="5" t="str">
         <f>M79*F79</f>
         <v>0</v>
       </c>
       <c r="O79" s="7"/>
-      <c r="P79" s="5">
+      <c r="P79" s="5" t="str">
         <f>O79*F79</f>
         <v>0</v>
       </c>
       <c r="Q79" s="7"/>
-      <c r="R79" s="5">
+      <c r="R79" s="5" t="str">
         <f>Q79*F79</f>
         <v>0</v>
       </c>
@@ -7649,32 +7565,32 @@
         <v>0.59</v>
       </c>
       <c r="G80" s="29"/>
-      <c r="H80" s="5">
+      <c r="H80" s="5" t="str">
         <f>G80*F80</f>
         <v>0</v>
       </c>
       <c r="I80" s="22"/>
-      <c r="J80" s="5">
+      <c r="J80" s="5" t="str">
         <f>I80*F80</f>
         <v>0</v>
       </c>
       <c r="K80" s="7"/>
-      <c r="L80" s="5">
+      <c r="L80" s="5" t="str">
         <f>K80*F80</f>
         <v>0</v>
       </c>
       <c r="M80" s="7"/>
-      <c r="N80" s="5">
+      <c r="N80" s="5" t="str">
         <f>M80*F80</f>
         <v>0</v>
       </c>
       <c r="O80" s="7"/>
-      <c r="P80" s="5">
+      <c r="P80" s="5" t="str">
         <f>O80*F80</f>
         <v>0</v>
       </c>
       <c r="Q80" s="7"/>
-      <c r="R80" s="5">
+      <c r="R80" s="5" t="str">
         <f>Q80*F80</f>
         <v>0</v>
       </c>
@@ -7701,32 +7617,32 @@
         <v>0.62</v>
       </c>
       <c r="G81" s="29"/>
-      <c r="H81" s="5">
+      <c r="H81" s="5" t="str">
         <f>G81*F81</f>
         <v>0</v>
       </c>
       <c r="I81" s="22"/>
-      <c r="J81" s="5">
+      <c r="J81" s="5" t="str">
         <f>I81*F81</f>
         <v>0</v>
       </c>
       <c r="K81" s="7"/>
-      <c r="L81" s="5">
+      <c r="L81" s="5" t="str">
         <f>K81*F81</f>
         <v>0</v>
       </c>
       <c r="M81" s="7"/>
-      <c r="N81" s="5">
+      <c r="N81" s="5" t="str">
         <f>M81*F81</f>
         <v>0</v>
       </c>
       <c r="O81" s="7"/>
-      <c r="P81" s="5">
+      <c r="P81" s="5" t="str">
         <f>O81*F81</f>
         <v>0</v>
       </c>
       <c r="Q81" s="7"/>
-      <c r="R81" s="5">
+      <c r="R81" s="5" t="str">
         <f>Q81*F81</f>
         <v>0</v>
       </c>
@@ -7753,32 +7669,32 @@
         <v>0.66</v>
       </c>
       <c r="G82" s="29"/>
-      <c r="H82" s="5">
+      <c r="H82" s="5" t="str">
         <f>G82*F82</f>
         <v>0</v>
       </c>
       <c r="I82" s="22"/>
-      <c r="J82" s="5">
+      <c r="J82" s="5" t="str">
         <f>I82*F82</f>
         <v>0</v>
       </c>
       <c r="K82" s="7"/>
-      <c r="L82" s="5">
+      <c r="L82" s="5" t="str">
         <f>K82*F82</f>
         <v>0</v>
       </c>
       <c r="M82" s="7"/>
-      <c r="N82" s="5">
+      <c r="N82" s="5" t="str">
         <f>M82*F82</f>
         <v>0</v>
       </c>
       <c r="O82" s="7"/>
-      <c r="P82" s="5">
+      <c r="P82" s="5" t="str">
         <f>O82*F82</f>
         <v>0</v>
       </c>
       <c r="Q82" s="7"/>
-      <c r="R82" s="5">
+      <c r="R82" s="5" t="str">
         <f>Q82*F82</f>
         <v>0</v>
       </c>
@@ -7805,32 +7721,32 @@
         <v>0.67</v>
       </c>
       <c r="G83" s="29"/>
-      <c r="H83" s="5">
+      <c r="H83" s="5" t="str">
         <f>G83*F83</f>
         <v>0</v>
       </c>
       <c r="I83" s="22"/>
-      <c r="J83" s="5">
+      <c r="J83" s="5" t="str">
         <f>I83*F83</f>
         <v>0</v>
       </c>
       <c r="K83" s="7"/>
-      <c r="L83" s="5">
+      <c r="L83" s="5" t="str">
         <f>K83*F83</f>
         <v>0</v>
       </c>
       <c r="M83" s="7"/>
-      <c r="N83" s="5">
+      <c r="N83" s="5" t="str">
         <f>M83*F83</f>
         <v>0</v>
       </c>
       <c r="O83" s="7"/>
-      <c r="P83" s="5">
+      <c r="P83" s="5" t="str">
         <f>O83*F83</f>
         <v>0</v>
       </c>
       <c r="Q83" s="7"/>
-      <c r="R83" s="5">
+      <c r="R83" s="5" t="str">
         <f>Q83*F83</f>
         <v>0</v>
       </c>
@@ -7857,32 +7773,32 @@
         <v>0.71</v>
       </c>
       <c r="G84" s="29"/>
-      <c r="H84" s="5">
+      <c r="H84" s="5" t="str">
         <f>G84*F84</f>
         <v>0</v>
       </c>
       <c r="I84" s="22"/>
-      <c r="J84" s="5">
+      <c r="J84" s="5" t="str">
         <f>I84*F84</f>
         <v>0</v>
       </c>
       <c r="K84" s="7"/>
-      <c r="L84" s="5">
+      <c r="L84" s="5" t="str">
         <f>K84*F84</f>
         <v>0</v>
       </c>
       <c r="M84" s="7"/>
-      <c r="N84" s="5">
+      <c r="N84" s="5" t="str">
         <f>M84*F84</f>
         <v>0</v>
       </c>
       <c r="O84" s="7"/>
-      <c r="P84" s="5">
+      <c r="P84" s="5" t="str">
         <f>O84*F84</f>
         <v>0</v>
       </c>
       <c r="Q84" s="7"/>
-      <c r="R84" s="5">
+      <c r="R84" s="5" t="str">
         <f>Q84*F84</f>
         <v>0</v>
       </c>
@@ -7909,32 +7825,32 @@
         <v>0.75</v>
       </c>
       <c r="G85" s="29"/>
-      <c r="H85" s="5">
+      <c r="H85" s="5" t="str">
         <f>G85*F85</f>
         <v>0</v>
       </c>
       <c r="I85" s="22"/>
-      <c r="J85" s="5">
+      <c r="J85" s="5" t="str">
         <f>I85*F85</f>
         <v>0</v>
       </c>
       <c r="K85" s="7"/>
-      <c r="L85" s="5">
+      <c r="L85" s="5" t="str">
         <f>K85*F85</f>
         <v>0</v>
       </c>
       <c r="M85" s="7"/>
-      <c r="N85" s="5">
+      <c r="N85" s="5" t="str">
         <f>M85*F85</f>
         <v>0</v>
       </c>
       <c r="O85" s="7"/>
-      <c r="P85" s="5">
+      <c r="P85" s="5" t="str">
         <f>O85*F85</f>
         <v>0</v>
       </c>
       <c r="Q85" s="7"/>
-      <c r="R85" s="5">
+      <c r="R85" s="5" t="str">
         <f>Q85*F85</f>
         <v>0</v>
       </c>
@@ -7959,32 +7875,32 @@
         <v>1.53</v>
       </c>
       <c r="G86" s="29"/>
-      <c r="H86" s="5">
+      <c r="H86" s="5" t="str">
         <f>G86*F86</f>
         <v>0</v>
       </c>
       <c r="I86" s="22"/>
-      <c r="J86" s="5">
+      <c r="J86" s="5" t="str">
         <f>I86*F86</f>
         <v>0</v>
       </c>
       <c r="K86" s="7"/>
-      <c r="L86" s="5">
+      <c r="L86" s="5" t="str">
         <f>K86*F86</f>
         <v>0</v>
       </c>
       <c r="M86" s="7"/>
-      <c r="N86" s="5">
+      <c r="N86" s="5" t="str">
         <f>M86*F86</f>
         <v>0</v>
       </c>
       <c r="O86" s="7"/>
-      <c r="P86" s="5">
+      <c r="P86" s="5" t="str">
         <f>O86*F86</f>
         <v>0</v>
       </c>
       <c r="Q86" s="7"/>
-      <c r="R86" s="5">
+      <c r="R86" s="5" t="str">
         <f>Q86*F86</f>
         <v>0</v>
       </c>
@@ -8228,15 +8144,15 @@
       <c r="F93" s="2"/>
       <c r="H93" s="95">
         <f>SUM(H7:H92)</f>
-        <v>609.37</v>
+        <v>0</v>
       </c>
       <c r="J93" s="95">
         <f>SUM(J7:J92)</f>
-        <v>647.6</v>
+        <v>0</v>
       </c>
       <c r="L93" s="95">
         <f>SUM(L7:L92)</f>
-        <v>307.13</v>
+        <v>0</v>
       </c>
       <c r="N93" s="96">
         <f>SUM(N7:N92)</f>
@@ -8275,7 +8191,7 @@
       <c r="F97" s="2"/>
       <c r="H97" s="1">
         <f>H93+J93+L93+N93+P93+R93</f>
-        <v>1564.1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ЗАЯВКА ВОДОСТОК.xlsx
+++ b/ЗАЯВКА ВОДОСТОК.xlsx
@@ -3825,32 +3825,32 @@
         <v>0.63</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="5">
         <f>G8*F8</f>
         <v>0</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="5" t="str">
+      <c r="J8" s="5">
         <f>I8*F8</f>
         <v>0</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="5" t="str">
+      <c r="L8" s="5">
         <f>F8*K8</f>
         <v>0</v>
       </c>
       <c r="M8" s="7"/>
-      <c r="N8" s="5" t="str">
+      <c r="N8" s="5">
         <f>M8*F8</f>
         <v>0</v>
       </c>
       <c r="O8" s="7"/>
-      <c r="P8" s="5" t="str">
+      <c r="P8" s="5">
         <f>O8*F8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="7"/>
-      <c r="R8" s="5" t="str">
+      <c r="R8" s="5">
         <f>Q8*F8</f>
         <v>0</v>
       </c>
@@ -3879,32 +3879,32 @@
         <v>0.98</v>
       </c>
       <c r="G9" s="29"/>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="5">
         <f>G9*F9</f>
         <v>0</v>
       </c>
       <c r="I9" s="22"/>
-      <c r="J9" s="5" t="str">
+      <c r="J9" s="5">
         <f>I9*F9</f>
         <v>0</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="5" t="str">
+      <c r="L9" s="5">
         <f>F9*K9</f>
         <v>0</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="5" t="str">
+      <c r="N9" s="5">
         <f>M9*F9</f>
         <v>0</v>
       </c>
       <c r="O9" s="7"/>
-      <c r="P9" s="5" t="str">
+      <c r="P9" s="5">
         <f>O9*F9</f>
         <v>0</v>
       </c>
       <c r="Q9" s="7"/>
-      <c r="R9" s="5" t="str">
+      <c r="R9" s="5">
         <f>Q9*F9</f>
         <v>0</v>
       </c>
@@ -3933,32 +3933,32 @@
         <v>1.5</v>
       </c>
       <c r="G10" s="22"/>
-      <c r="H10" s="5" t="str">
+      <c r="H10" s="5">
         <f>G10*F10</f>
         <v>0</v>
       </c>
       <c r="I10" s="22"/>
-      <c r="J10" s="5" t="str">
+      <c r="J10" s="5">
         <f>I10*F10</f>
         <v>0</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="5" t="str">
+      <c r="L10" s="5">
         <f>F10*K10</f>
         <v>0</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="5" t="str">
+      <c r="N10" s="5">
         <f>M10*F10</f>
         <v>0</v>
       </c>
       <c r="O10" s="7"/>
-      <c r="P10" s="5" t="str">
+      <c r="P10" s="5">
         <f>O10*F10</f>
         <v>0</v>
       </c>
       <c r="Q10" s="7"/>
-      <c r="R10" s="5" t="str">
+      <c r="R10" s="5">
         <f>Q10*F10</f>
         <v>0</v>
       </c>
@@ -3987,32 +3987,32 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="22"/>
-      <c r="H11" s="5" t="str">
+      <c r="H11" s="5">
         <f>G11*F11</f>
         <v>0</v>
       </c>
       <c r="I11" s="22"/>
-      <c r="J11" s="5" t="str">
+      <c r="J11" s="5">
         <f>I11*F11</f>
         <v>0</v>
       </c>
       <c r="K11" s="7"/>
-      <c r="L11" s="5" t="str">
+      <c r="L11" s="5">
         <f>F11*K11</f>
         <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="5" t="str">
+      <c r="N11" s="5">
         <f>M11*F11</f>
         <v>0</v>
       </c>
       <c r="O11" s="7"/>
-      <c r="P11" s="5" t="str">
+      <c r="P11" s="5">
         <f>O11*F11</f>
         <v>0</v>
       </c>
       <c r="Q11" s="7"/>
-      <c r="R11" s="5" t="str">
+      <c r="R11" s="5">
         <f>Q11*F11</f>
         <v>0</v>
       </c>
@@ -4041,32 +4041,32 @@
         <v>1.5</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="5" t="str">
+      <c r="H12" s="5">
         <f>G12*F12</f>
         <v>0</v>
       </c>
       <c r="I12" s="22"/>
-      <c r="J12" s="5" t="str">
+      <c r="J12" s="5">
         <f>I12*F12</f>
         <v>0</v>
       </c>
       <c r="K12" s="7"/>
-      <c r="L12" s="5" t="str">
+      <c r="L12" s="5">
         <f>F12*K12</f>
         <v>0</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="5" t="str">
+      <c r="N12" s="5">
         <f>M12*F12</f>
         <v>0</v>
       </c>
       <c r="O12" s="7"/>
-      <c r="P12" s="5" t="str">
+      <c r="P12" s="5">
         <f>O12*F12</f>
         <v>0</v>
       </c>
       <c r="Q12" s="7"/>
-      <c r="R12" s="5" t="str">
+      <c r="R12" s="5">
         <f>Q12*F12</f>
         <v>0</v>
       </c>
@@ -4095,32 +4095,32 @@
         <v>0.43</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="5" t="str">
+      <c r="H13" s="5">
         <f>G13*F13</f>
         <v>0</v>
       </c>
       <c r="I13" s="22"/>
-      <c r="J13" s="5" t="str">
+      <c r="J13" s="5">
         <f>I13*F13</f>
         <v>0</v>
       </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="5" t="str">
+      <c r="L13" s="5">
         <f>F13*K13</f>
         <v>0</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="5" t="str">
+      <c r="N13" s="5">
         <f>M13*F13</f>
         <v>0</v>
       </c>
       <c r="O13" s="7"/>
-      <c r="P13" s="5" t="str">
+      <c r="P13" s="5">
         <f>O13*F13</f>
         <v>0</v>
       </c>
       <c r="Q13" s="7"/>
-      <c r="R13" s="5" t="str">
+      <c r="R13" s="5">
         <f>Q13*F13</f>
         <v>0</v>
       </c>
@@ -4149,32 +4149,32 @@
         <v>0.45</v>
       </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="5" t="str">
+      <c r="H14" s="5">
         <f>G14*F14</f>
         <v>0</v>
       </c>
       <c r="I14" s="22"/>
-      <c r="J14" s="5" t="str">
+      <c r="J14" s="5">
         <f>I14*F14</f>
         <v>0</v>
       </c>
       <c r="K14" s="7"/>
-      <c r="L14" s="5" t="str">
+      <c r="L14" s="5">
         <f>F14*K14</f>
         <v>0</v>
       </c>
       <c r="M14" s="7"/>
-      <c r="N14" s="5" t="str">
+      <c r="N14" s="5">
         <f>M14*F14</f>
         <v>0</v>
       </c>
       <c r="O14" s="7"/>
-      <c r="P14" s="5" t="str">
+      <c r="P14" s="5">
         <f>O14*F14</f>
         <v>0</v>
       </c>
       <c r="Q14" s="7"/>
-      <c r="R14" s="5" t="str">
+      <c r="R14" s="5">
         <f>Q14*F14</f>
         <v>0</v>
       </c>
@@ -4203,32 +4203,32 @@
         <v>0.45</v>
       </c>
       <c r="G15" s="22"/>
-      <c r="H15" s="5" t="str">
+      <c r="H15" s="5">
         <f>G15*F15</f>
         <v>0</v>
       </c>
       <c r="I15" s="22"/>
-      <c r="J15" s="5" t="str">
+      <c r="J15" s="5">
         <f>I15*F15</f>
         <v>0</v>
       </c>
       <c r="K15" s="7"/>
-      <c r="L15" s="5" t="str">
+      <c r="L15" s="5">
         <f>F15*K15</f>
         <v>0</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="5" t="str">
+      <c r="N15" s="5">
         <f>M15*F15</f>
         <v>0</v>
       </c>
       <c r="O15" s="7"/>
-      <c r="P15" s="5" t="str">
+      <c r="P15" s="5">
         <f>O15*F15</f>
         <v>0</v>
       </c>
       <c r="Q15" s="7"/>
-      <c r="R15" s="5" t="str">
+      <c r="R15" s="5">
         <f>Q15*F15</f>
         <v>0</v>
       </c>
@@ -4293,32 +4293,32 @@
         <v>0.85</v>
       </c>
       <c r="G17" s="22"/>
-      <c r="H17" s="5" t="str">
+      <c r="H17" s="5">
         <f>G17*F17</f>
         <v>0</v>
       </c>
       <c r="I17" s="22"/>
-      <c r="J17" s="5" t="str">
+      <c r="J17" s="5">
         <f>I17*F17</f>
         <v>0</v>
       </c>
       <c r="K17" s="48"/>
-      <c r="L17" s="5" t="str">
+      <c r="L17" s="5">
         <f>K17*F17</f>
         <v>0</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="5" t="str">
+      <c r="N17" s="5">
         <f>M17*F17</f>
         <v>0</v>
       </c>
       <c r="O17" s="7"/>
-      <c r="P17" s="5" t="str">
+      <c r="P17" s="5">
         <f>O17*F17</f>
         <v>0</v>
       </c>
       <c r="Q17" s="7"/>
-      <c r="R17" s="5" t="str">
+      <c r="R17" s="5">
         <f>Q17*F17</f>
         <v>0</v>
       </c>
@@ -4347,32 +4347,32 @@
         <v>1.2</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="5" t="str">
+      <c r="H18" s="5">
         <f>G18*F18</f>
         <v>0</v>
       </c>
       <c r="I18" s="22"/>
-      <c r="J18" s="5" t="str">
+      <c r="J18" s="5">
         <f>I18*F18</f>
         <v>0</v>
       </c>
       <c r="K18" s="49"/>
-      <c r="L18" s="5" t="str">
+      <c r="L18" s="5">
         <f>K18*F18</f>
         <v>0</v>
       </c>
       <c r="M18" s="7"/>
-      <c r="N18" s="5" t="str">
+      <c r="N18" s="5">
         <f>M18*F18</f>
         <v>0</v>
       </c>
       <c r="O18" s="7"/>
-      <c r="P18" s="5" t="str">
+      <c r="P18" s="5">
         <f>O18*F18</f>
         <v>0</v>
       </c>
       <c r="Q18" s="7"/>
-      <c r="R18" s="5" t="str">
+      <c r="R18" s="5">
         <f>Q18*F18</f>
         <v>0</v>
       </c>
@@ -4401,32 +4401,32 @@
         <v>1.61</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="5" t="str">
+      <c r="H19" s="5">
         <f>G19*F19</f>
         <v>0</v>
       </c>
       <c r="I19" s="22"/>
-      <c r="J19" s="5" t="str">
+      <c r="J19" s="5">
         <f>I19*F19</f>
         <v>0</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="5" t="str">
+      <c r="L19" s="5">
         <f>K19*F19</f>
         <v>0</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="5" t="str">
+      <c r="N19" s="5">
         <f>M19*F19</f>
         <v>0</v>
       </c>
       <c r="O19" s="7"/>
-      <c r="P19" s="5" t="str">
+      <c r="P19" s="5">
         <f>O19*F19</f>
         <v>0</v>
       </c>
       <c r="Q19" s="7"/>
-      <c r="R19" s="5" t="str">
+      <c r="R19" s="5">
         <f>Q19*F19</f>
         <v>0</v>
       </c>
@@ -4455,32 +4455,32 @@
         <v>1.61</v>
       </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="5" t="str">
+      <c r="H20" s="5">
         <f>G20*F20</f>
         <v>0</v>
       </c>
       <c r="I20" s="22"/>
-      <c r="J20" s="5" t="str">
+      <c r="J20" s="5">
         <f>I20*F20</f>
         <v>0</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="5" t="str">
+      <c r="L20" s="5">
         <f>K20*F20</f>
         <v>0</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="5" t="str">
+      <c r="N20" s="5">
         <f>M20*F20</f>
         <v>0</v>
       </c>
       <c r="O20" s="7"/>
-      <c r="P20" s="5" t="str">
+      <c r="P20" s="5">
         <f>O20*F20</f>
         <v>0</v>
       </c>
       <c r="Q20" s="7"/>
-      <c r="R20" s="5" t="str">
+      <c r="R20" s="5">
         <f>Q20*F20</f>
         <v>0</v>
       </c>
@@ -4509,32 +4509,32 @@
         <v>1.61</v>
       </c>
       <c r="G21" s="22"/>
-      <c r="H21" s="5" t="str">
+      <c r="H21" s="5">
         <f>G21*F21</f>
         <v>0</v>
       </c>
       <c r="I21" s="22"/>
-      <c r="J21" s="5" t="str">
+      <c r="J21" s="5">
         <f>I21*F21</f>
         <v>0</v>
       </c>
       <c r="K21" s="48"/>
-      <c r="L21" s="5" t="str">
+      <c r="L21" s="5">
         <f>K21*F21</f>
         <v>0</v>
       </c>
       <c r="M21" s="7"/>
-      <c r="N21" s="5" t="str">
+      <c r="N21" s="5">
         <f>M21*F21</f>
         <v>0</v>
       </c>
       <c r="O21" s="7"/>
-      <c r="P21" s="5" t="str">
+      <c r="P21" s="5">
         <f>O21*F21</f>
         <v>0</v>
       </c>
       <c r="Q21" s="7"/>
-      <c r="R21" s="5" t="str">
+      <c r="R21" s="5">
         <f>Q21*F21</f>
         <v>0</v>
       </c>
@@ -4563,32 +4563,32 @@
         <v>0.49</v>
       </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="5" t="str">
+      <c r="H22" s="5">
         <f>G22*F22</f>
         <v>0</v>
       </c>
       <c r="I22" s="22"/>
-      <c r="J22" s="5" t="str">
+      <c r="J22" s="5">
         <f>I22*F22</f>
         <v>0</v>
       </c>
       <c r="K22" s="48"/>
-      <c r="L22" s="5" t="str">
+      <c r="L22" s="5">
         <f>K22*F22</f>
         <v>0</v>
       </c>
       <c r="M22" s="7"/>
-      <c r="N22" s="5" t="str">
+      <c r="N22" s="5">
         <f>M22*F22</f>
         <v>0</v>
       </c>
       <c r="O22" s="7"/>
-      <c r="P22" s="5" t="str">
+      <c r="P22" s="5">
         <f>O22*F22</f>
         <v>0</v>
       </c>
       <c r="Q22" s="7"/>
-      <c r="R22" s="5" t="str">
+      <c r="R22" s="5">
         <f>Q22*F22</f>
         <v>0</v>
       </c>
@@ -4617,32 +4617,32 @@
         <v>0.57</v>
       </c>
       <c r="G23" s="22"/>
-      <c r="H23" s="5" t="str">
+      <c r="H23" s="5">
         <f>G23*F23</f>
         <v>0</v>
       </c>
       <c r="I23" s="22"/>
-      <c r="J23" s="5" t="str">
+      <c r="J23" s="5">
         <f>I23*F23</f>
         <v>0</v>
       </c>
       <c r="K23" s="7"/>
-      <c r="L23" s="5" t="str">
+      <c r="L23" s="5">
         <f>K23*F23</f>
         <v>0</v>
       </c>
       <c r="M23" s="7"/>
-      <c r="N23" s="5" t="str">
+      <c r="N23" s="5">
         <f>M23*F23</f>
         <v>0</v>
       </c>
       <c r="O23" s="7"/>
-      <c r="P23" s="5" t="str">
+      <c r="P23" s="5">
         <f>O23*F23</f>
         <v>0</v>
       </c>
       <c r="Q23" s="7"/>
-      <c r="R23" s="5" t="str">
+      <c r="R23" s="5">
         <f>Q23*F23</f>
         <v>0</v>
       </c>
@@ -4671,32 +4671,32 @@
         <v>0.57</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="5" t="str">
+      <c r="H24" s="5">
         <f>G24*F24</f>
         <v>0</v>
       </c>
       <c r="I24" s="22"/>
-      <c r="J24" s="5" t="str">
+      <c r="J24" s="5">
         <f>I24*F24</f>
         <v>0</v>
       </c>
       <c r="K24" s="48"/>
-      <c r="L24" s="5" t="str">
+      <c r="L24" s="5">
         <f>K24*F24</f>
         <v>0</v>
       </c>
       <c r="M24" s="7"/>
-      <c r="N24" s="5" t="str">
+      <c r="N24" s="5">
         <f>M24*F24</f>
         <v>0</v>
       </c>
       <c r="O24" s="7"/>
-      <c r="P24" s="5" t="str">
+      <c r="P24" s="5">
         <f>O24*F24</f>
         <v>0</v>
       </c>
       <c r="Q24" s="22"/>
-      <c r="R24" s="5" t="str">
+      <c r="R24" s="5">
         <f>Q24*F24</f>
         <v>0</v>
       </c>
@@ -4766,27 +4766,27 @@
         <v>0</v>
       </c>
       <c r="I26" s="22"/>
-      <c r="J26" s="5" t="str">
+      <c r="J26" s="5">
         <f>I26*F26</f>
         <v>0</v>
       </c>
       <c r="K26" s="22"/>
-      <c r="L26" s="5" t="str">
+      <c r="L26" s="5">
         <f>K26*F26</f>
         <v>0</v>
       </c>
       <c r="M26" s="7"/>
-      <c r="N26" s="5" t="str">
+      <c r="N26" s="5">
         <f>M26*F26</f>
         <v>0</v>
       </c>
       <c r="O26" s="49"/>
-      <c r="P26" s="5" t="str">
+      <c r="P26" s="5">
         <f>O26*F26</f>
         <v>0</v>
       </c>
       <c r="Q26" s="51"/>
-      <c r="R26" s="5" t="str">
+      <c r="R26" s="5">
         <f>Q26*F26</f>
         <v>0</v>
       </c>
@@ -4820,27 +4820,27 @@
         <v>0</v>
       </c>
       <c r="I27" s="22"/>
-      <c r="J27" s="5" t="str">
+      <c r="J27" s="5">
         <f>I27*F27</f>
         <v>0</v>
       </c>
       <c r="K27" s="22"/>
-      <c r="L27" s="5" t="str">
+      <c r="L27" s="5">
         <f>K27*F27</f>
         <v>0</v>
       </c>
       <c r="M27" s="7"/>
-      <c r="N27" s="5" t="str">
+      <c r="N27" s="5">
         <f>M27*F27</f>
         <v>0</v>
       </c>
       <c r="O27" s="49"/>
-      <c r="P27" s="5" t="str">
+      <c r="P27" s="5">
         <f>O27*F27</f>
         <v>0</v>
       </c>
       <c r="Q27" s="51"/>
-      <c r="R27" s="5" t="str">
+      <c r="R27" s="5">
         <f>Q27*F27</f>
         <v>0</v>
       </c>
@@ -4868,33 +4868,35 @@
       <c r="F28" s="39">
         <v>1.42</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="5" t="str">
+      <c r="G28" s="22">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
         <f>G28*F28</f>
         <v>0</v>
       </c>
       <c r="I28" s="22"/>
-      <c r="J28" s="5" t="str">
+      <c r="J28" s="5">
         <f>I28*F28</f>
         <v>0</v>
       </c>
       <c r="K28" s="22"/>
-      <c r="L28" s="5" t="str">
+      <c r="L28" s="5">
         <f>K28*F28</f>
         <v>0</v>
       </c>
       <c r="M28" s="49"/>
-      <c r="N28" s="5" t="str">
+      <c r="N28" s="5">
         <f>M28*F28</f>
         <v>0</v>
       </c>
       <c r="O28" s="7"/>
-      <c r="P28" s="5" t="str">
+      <c r="P28" s="5">
         <f>O28*F28</f>
         <v>0</v>
       </c>
       <c r="Q28" s="51"/>
-      <c r="R28" s="5" t="str">
+      <c r="R28" s="5">
         <f>Q28*F28</f>
         <v>0</v>
       </c>
@@ -4922,33 +4924,35 @@
       <c r="F29" s="39">
         <v>1.73</v>
       </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="5" t="str">
+      <c r="G29" s="22">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
         <f>G29*F29</f>
         <v>0</v>
       </c>
       <c r="I29" s="22"/>
-      <c r="J29" s="5" t="str">
+      <c r="J29" s="5">
         <f>I29*F29</f>
         <v>0</v>
       </c>
       <c r="K29" s="22"/>
-      <c r="L29" s="5" t="str">
+      <c r="L29" s="5">
         <f>K29*F29</f>
         <v>0</v>
       </c>
       <c r="M29" s="22"/>
-      <c r="N29" s="5" t="str">
+      <c r="N29" s="5">
         <f>M29*F29</f>
         <v>0</v>
       </c>
       <c r="O29" s="22"/>
-      <c r="P29" s="5" t="str">
+      <c r="P29" s="5">
         <f>O29*F29</f>
         <v>0</v>
       </c>
       <c r="Q29" s="51"/>
-      <c r="R29" s="5" t="str">
+      <c r="R29" s="5">
         <f>Q29*F29</f>
         <v>0</v>
       </c>
@@ -4976,33 +4980,35 @@
       <c r="F30" s="39">
         <v>1.73</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="5" t="str">
+      <c r="G30" s="22">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <f>G30*F30</f>
         <v>0</v>
       </c>
       <c r="I30" s="22"/>
-      <c r="J30" s="5" t="str">
+      <c r="J30" s="5">
         <f>I30*F30</f>
         <v>0</v>
       </c>
       <c r="K30" s="22"/>
-      <c r="L30" s="5" t="str">
+      <c r="L30" s="5">
         <f>K30*F30</f>
         <v>0</v>
       </c>
       <c r="M30" s="22"/>
-      <c r="N30" s="5" t="str">
+      <c r="N30" s="5">
         <f>M30*F30</f>
         <v>0</v>
       </c>
       <c r="O30" s="22"/>
-      <c r="P30" s="5" t="str">
+      <c r="P30" s="5">
         <f>O30*F30</f>
         <v>0</v>
       </c>
       <c r="Q30" s="51"/>
-      <c r="R30" s="5" t="str">
+      <c r="R30" s="5">
         <f>Q30*F30</f>
         <v>0</v>
       </c>
@@ -5030,33 +5036,35 @@
       <c r="F31" s="39">
         <v>1.73</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="5" t="str">
+      <c r="G31" s="22">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
         <f>G31*F31</f>
         <v>0</v>
       </c>
       <c r="I31" s="22"/>
-      <c r="J31" s="5" t="str">
+      <c r="J31" s="5">
         <f>I31*F31</f>
         <v>0</v>
       </c>
       <c r="K31" s="22"/>
-      <c r="L31" s="5" t="str">
+      <c r="L31" s="5">
         <f>K31*F31</f>
         <v>0</v>
       </c>
       <c r="M31" s="22"/>
-      <c r="N31" s="5" t="str">
+      <c r="N31" s="5">
         <f>M31*F31</f>
         <v>0</v>
       </c>
       <c r="O31" s="22"/>
-      <c r="P31" s="5" t="str">
+      <c r="P31" s="5">
         <f>O31*F31</f>
         <v>0</v>
       </c>
       <c r="Q31" s="51"/>
-      <c r="R31" s="5" t="str">
+      <c r="R31" s="5">
         <f>Q31*F31</f>
         <v>0</v>
       </c>
@@ -5084,33 +5092,35 @@
       <c r="F32" s="39">
         <v>1.73</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="5" t="str">
+      <c r="G32" s="22">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <f>G32*F32</f>
         <v>0</v>
       </c>
       <c r="I32" s="22"/>
-      <c r="J32" s="5" t="str">
+      <c r="J32" s="5">
         <f>I32*F32</f>
         <v>0</v>
       </c>
       <c r="K32" s="22"/>
-      <c r="L32" s="5" t="str">
+      <c r="L32" s="5">
         <f>K32*F32</f>
         <v>0</v>
       </c>
       <c r="M32" s="22"/>
-      <c r="N32" s="5" t="str">
+      <c r="N32" s="5">
         <f>M32*F32</f>
         <v>0</v>
       </c>
       <c r="O32" s="22"/>
-      <c r="P32" s="5" t="str">
+      <c r="P32" s="5">
         <f>O32*F32</f>
         <v>0</v>
       </c>
       <c r="Q32" s="51"/>
-      <c r="R32" s="5" t="str">
+      <c r="R32" s="5">
         <f>Q32*F32</f>
         <v>0</v>
       </c>
@@ -5138,33 +5148,35 @@
       <c r="F33" s="39">
         <v>0.54</v>
       </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="5" t="str">
+      <c r="G33" s="22">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
         <f>G33*F33</f>
         <v>0</v>
       </c>
       <c r="I33" s="22"/>
-      <c r="J33" s="5" t="str">
+      <c r="J33" s="5">
         <f>I33*F33</f>
         <v>0</v>
       </c>
       <c r="K33" s="22"/>
-      <c r="L33" s="5" t="str">
+      <c r="L33" s="5">
         <f>K33*F33</f>
         <v>0</v>
       </c>
       <c r="M33" s="22"/>
-      <c r="N33" s="5" t="str">
+      <c r="N33" s="5">
         <f>M33*F33</f>
         <v>0</v>
       </c>
       <c r="O33" s="22"/>
-      <c r="P33" s="5" t="str">
+      <c r="P33" s="5">
         <f>O33*F33</f>
         <v>0</v>
       </c>
       <c r="Q33" s="51"/>
-      <c r="R33" s="5" t="str">
+      <c r="R33" s="5">
         <f>Q33*F33</f>
         <v>0</v>
       </c>
@@ -5192,33 +5204,35 @@
       <c r="F34" s="39">
         <v>0.68</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="5" t="str">
+      <c r="G34" s="22">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
         <f>G34*F34</f>
         <v>0</v>
       </c>
       <c r="I34" s="22"/>
-      <c r="J34" s="5" t="str">
+      <c r="J34" s="5">
         <f>I34*F34</f>
         <v>0</v>
       </c>
       <c r="K34" s="22"/>
-      <c r="L34" s="5" t="str">
+      <c r="L34" s="5">
         <f>K34*F34</f>
         <v>0</v>
       </c>
       <c r="M34" s="22"/>
-      <c r="N34" s="5" t="str">
+      <c r="N34" s="5">
         <f>M34*F34</f>
         <v>0</v>
       </c>
       <c r="O34" s="22"/>
-      <c r="P34" s="5" t="str">
+      <c r="P34" s="5">
         <f>O34*F34</f>
         <v>0</v>
       </c>
       <c r="Q34" s="51"/>
-      <c r="R34" s="5" t="str">
+      <c r="R34" s="5">
         <f>Q34*F34</f>
         <v>0</v>
       </c>
@@ -5246,33 +5260,35 @@
       <c r="F35" s="39">
         <v>0.68</v>
       </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="5" t="str">
+      <c r="G35" s="22">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
         <f>G35*F35</f>
         <v>0</v>
       </c>
       <c r="I35" s="22"/>
-      <c r="J35" s="5" t="str">
+      <c r="J35" s="5">
         <f>I35*F35</f>
         <v>0</v>
       </c>
       <c r="K35" s="22"/>
-      <c r="L35" s="5" t="str">
+      <c r="L35" s="5">
         <f>K35*F35</f>
         <v>0</v>
       </c>
       <c r="M35" s="22"/>
-      <c r="N35" s="5" t="str">
+      <c r="N35" s="5">
         <f>M35*F35</f>
         <v>0</v>
       </c>
       <c r="O35" s="22"/>
-      <c r="P35" s="5" t="str">
+      <c r="P35" s="5">
         <f>O35*F35</f>
         <v>0</v>
       </c>
       <c r="Q35" s="51"/>
-      <c r="R35" s="5" t="str">
+      <c r="R35" s="5">
         <f>Q35*F35</f>
         <v>0</v>
       </c>
@@ -5301,32 +5317,32 @@
         <v>0.51</v>
       </c>
       <c r="G36" s="22"/>
-      <c r="H36" s="5" t="str">
+      <c r="H36" s="5">
         <f>G36*F36</f>
         <v>0</v>
       </c>
       <c r="I36" s="22"/>
-      <c r="J36" s="5" t="str">
+      <c r="J36" s="5">
         <f>I36*F36</f>
         <v>0</v>
       </c>
       <c r="K36" s="22"/>
-      <c r="L36" s="5" t="str">
+      <c r="L36" s="5">
         <f>K36*F36</f>
         <v>0</v>
       </c>
       <c r="M36" s="22"/>
-      <c r="N36" s="5" t="str">
+      <c r="N36" s="5">
         <f>M36*F36</f>
         <v>0</v>
       </c>
       <c r="O36" s="22"/>
-      <c r="P36" s="5" t="str">
+      <c r="P36" s="5">
         <f>O36*F36</f>
         <v>0</v>
       </c>
       <c r="Q36" s="51"/>
-      <c r="R36" s="5" t="str">
+      <c r="R36" s="5">
         <f>Q36*F36</f>
         <v>0</v>
       </c>
@@ -5391,32 +5407,32 @@
         <v>1.38</v>
       </c>
       <c r="G38" s="22"/>
-      <c r="H38" s="5" t="str">
+      <c r="H38" s="5">
         <f>G38*F38</f>
         <v>0</v>
       </c>
       <c r="I38" s="22"/>
-      <c r="J38" s="5" t="str">
+      <c r="J38" s="5">
         <f>I38*F38</f>
         <v>0</v>
       </c>
       <c r="K38" s="22"/>
-      <c r="L38" s="5" t="str">
+      <c r="L38" s="5">
         <f>K38*F38</f>
         <v>0</v>
       </c>
       <c r="M38" s="22"/>
-      <c r="N38" s="5" t="str">
+      <c r="N38" s="5">
         <f>M38*F38</f>
         <v>0</v>
       </c>
       <c r="O38" s="22"/>
-      <c r="P38" s="5" t="str">
+      <c r="P38" s="5">
         <f>O38*F38</f>
         <v>0</v>
       </c>
       <c r="Q38" s="22"/>
-      <c r="R38" s="5" t="str">
+      <c r="R38" s="5">
         <f>Q38*F38</f>
         <v>0</v>
       </c>
@@ -5445,32 +5461,32 @@
         <v>1.59</v>
       </c>
       <c r="G39" s="22"/>
-      <c r="H39" s="5" t="str">
+      <c r="H39" s="5">
         <f>G39*F39</f>
         <v>0</v>
       </c>
       <c r="I39" s="22"/>
-      <c r="J39" s="5" t="str">
+      <c r="J39" s="5">
         <f>I39*F39</f>
         <v>0</v>
       </c>
       <c r="K39" s="22"/>
-      <c r="L39" s="5" t="str">
+      <c r="L39" s="5">
         <f>K39*F39</f>
         <v>0</v>
       </c>
       <c r="M39" s="22"/>
-      <c r="N39" s="5" t="str">
+      <c r="N39" s="5">
         <f>M39*F39</f>
         <v>0</v>
       </c>
       <c r="O39" s="22"/>
-      <c r="P39" s="5" t="str">
+      <c r="P39" s="5">
         <f>O39*F39</f>
         <v>0</v>
       </c>
       <c r="Q39" s="22"/>
-      <c r="R39" s="5" t="str">
+      <c r="R39" s="5">
         <f>Q39*F39</f>
         <v>0</v>
       </c>
@@ -5499,32 +5515,32 @@
         <v>2.9</v>
       </c>
       <c r="G40" s="22"/>
-      <c r="H40" s="5" t="str">
+      <c r="H40" s="5">
         <f>G40*F40</f>
         <v>0</v>
       </c>
       <c r="I40" s="22"/>
-      <c r="J40" s="5" t="str">
+      <c r="J40" s="5">
         <f>I40*F40</f>
         <v>0</v>
       </c>
       <c r="K40" s="22"/>
-      <c r="L40" s="5" t="str">
+      <c r="L40" s="5">
         <f>K40*F40</f>
         <v>0</v>
       </c>
       <c r="M40" s="22"/>
-      <c r="N40" s="5" t="str">
+      <c r="N40" s="5">
         <f>M40*F40</f>
         <v>0</v>
       </c>
       <c r="O40" s="22"/>
-      <c r="P40" s="5" t="str">
+      <c r="P40" s="5">
         <f>O40*F40</f>
         <v>0</v>
       </c>
       <c r="Q40" s="22"/>
-      <c r="R40" s="5" t="str">
+      <c r="R40" s="5">
         <f>Q40*F40</f>
         <v>0</v>
       </c>
@@ -5553,32 +5569,32 @@
         <v>2.08</v>
       </c>
       <c r="G41" s="29"/>
-      <c r="H41" s="5" t="str">
+      <c r="H41" s="5">
         <f>G41*F41</f>
         <v>0</v>
       </c>
       <c r="I41" s="55"/>
-      <c r="J41" s="5" t="str">
+      <c r="J41" s="5">
         <f>I41*F41</f>
         <v>0</v>
       </c>
       <c r="K41" s="48"/>
-      <c r="L41" s="5" t="str">
+      <c r="L41" s="5">
         <f>K41*F41</f>
         <v>0</v>
       </c>
       <c r="M41" s="7"/>
-      <c r="N41" s="5" t="str">
+      <c r="N41" s="5">
         <f>M41*F41</f>
         <v>0</v>
       </c>
       <c r="O41" s="7"/>
-      <c r="P41" s="5" t="str">
+      <c r="P41" s="5">
         <f>O41*F41</f>
         <v>0</v>
       </c>
       <c r="Q41" s="7"/>
-      <c r="R41" s="5" t="str">
+      <c r="R41" s="5">
         <f>Q41*F41</f>
         <v>0</v>
       </c>
@@ -5607,32 +5623,32 @@
         <v>2.08</v>
       </c>
       <c r="G42" s="22"/>
-      <c r="H42" s="5" t="str">
+      <c r="H42" s="5">
         <f>G42*F42</f>
         <v>0</v>
       </c>
       <c r="I42" s="22"/>
-      <c r="J42" s="5" t="str">
+      <c r="J42" s="5">
         <f>I42*F42</f>
         <v>0</v>
       </c>
       <c r="K42" s="49"/>
-      <c r="L42" s="5" t="str">
+      <c r="L42" s="5">
         <f>K42*F42</f>
         <v>0</v>
       </c>
       <c r="M42" s="7"/>
-      <c r="N42" s="5" t="str">
+      <c r="N42" s="5">
         <f>M42*F42</f>
         <v>0</v>
       </c>
       <c r="O42" s="7"/>
-      <c r="P42" s="5" t="str">
+      <c r="P42" s="5">
         <f>O42*F42</f>
         <v>0</v>
       </c>
       <c r="Q42" s="7"/>
-      <c r="R42" s="5" t="str">
+      <c r="R42" s="5">
         <f>Q42*F42</f>
         <v>0</v>
       </c>
@@ -5661,32 +5677,32 @@
         <v>0.65</v>
       </c>
       <c r="G43" s="22"/>
-      <c r="H43" s="5" t="str">
+      <c r="H43" s="5">
         <f>G43*F43</f>
         <v>0</v>
       </c>
       <c r="I43" s="22"/>
-      <c r="J43" s="5" t="str">
+      <c r="J43" s="5">
         <f>I43*F43</f>
         <v>0</v>
       </c>
       <c r="K43" s="48"/>
-      <c r="L43" s="5" t="str">
+      <c r="L43" s="5">
         <f>K43*F43</f>
         <v>0</v>
       </c>
       <c r="M43" s="7"/>
-      <c r="N43" s="5" t="str">
+      <c r="N43" s="5">
         <f>M43*F43</f>
         <v>0</v>
       </c>
       <c r="O43" s="7"/>
-      <c r="P43" s="5" t="str">
+      <c r="P43" s="5">
         <f>O43*F43</f>
         <v>0</v>
       </c>
       <c r="Q43" s="7"/>
-      <c r="R43" s="5" t="str">
+      <c r="R43" s="5">
         <f>Q43*F43</f>
         <v>0</v>
       </c>
@@ -5715,32 +5731,32 @@
         <v>0.87</v>
       </c>
       <c r="G44" s="22"/>
-      <c r="H44" s="5" t="str">
+      <c r="H44" s="5">
         <f>G44*F44</f>
         <v>0</v>
       </c>
       <c r="I44" s="22"/>
-      <c r="J44" s="5" t="str">
+      <c r="J44" s="5">
         <f>I44*F44</f>
         <v>0</v>
       </c>
       <c r="K44" s="48"/>
-      <c r="L44" s="5" t="str">
+      <c r="L44" s="5">
         <f>K44*F44</f>
         <v>0</v>
       </c>
       <c r="M44" s="7"/>
-      <c r="N44" s="5" t="str">
+      <c r="N44" s="5">
         <f>M44*F44</f>
         <v>0</v>
       </c>
       <c r="O44" s="7"/>
-      <c r="P44" s="5" t="str">
+      <c r="P44" s="5">
         <f>O44*F44</f>
         <v>0</v>
       </c>
       <c r="Q44" s="7"/>
-      <c r="R44" s="5" t="str">
+      <c r="R44" s="5">
         <f>Q44*F44</f>
         <v>0</v>
       </c>
@@ -5769,32 +5785,32 @@
         <v>0.87</v>
       </c>
       <c r="G45" s="22"/>
-      <c r="H45" s="5" t="str">
+      <c r="H45" s="5">
         <f>G45*F45</f>
         <v>0</v>
       </c>
       <c r="I45" s="22"/>
-      <c r="J45" s="5" t="str">
+      <c r="J45" s="5">
         <f>I45*F45</f>
         <v>0</v>
       </c>
       <c r="K45" s="48"/>
-      <c r="L45" s="5" t="str">
+      <c r="L45" s="5">
         <f>K45*F45</f>
         <v>0</v>
       </c>
       <c r="M45" s="7"/>
-      <c r="N45" s="5" t="str">
+      <c r="N45" s="5">
         <f>M45*F45</f>
         <v>0</v>
       </c>
       <c r="O45" s="7"/>
-      <c r="P45" s="5" t="str">
+      <c r="P45" s="5">
         <f>O45*F45</f>
         <v>0</v>
       </c>
       <c r="Q45" s="7"/>
-      <c r="R45" s="5" t="str">
+      <c r="R45" s="5">
         <f>Q45*F45</f>
         <v>0</v>
       </c>
@@ -5859,32 +5875,32 @@
         <v>1.45</v>
       </c>
       <c r="G47" s="22"/>
-      <c r="H47" s="5" t="str">
+      <c r="H47" s="5">
         <f>G47*F47</f>
         <v>0</v>
       </c>
       <c r="I47" s="22"/>
-      <c r="J47" s="5" t="str">
+      <c r="J47" s="5">
         <f>I47*F47</f>
         <v>0</v>
       </c>
       <c r="K47" s="55"/>
-      <c r="L47" s="5" t="str">
+      <c r="L47" s="5">
         <f>K47*F47</f>
         <v>0</v>
       </c>
       <c r="M47" s="7"/>
-      <c r="N47" s="5" t="str">
+      <c r="N47" s="5">
         <f>M47*F47</f>
         <v>0</v>
       </c>
       <c r="O47" s="7"/>
-      <c r="P47" s="5" t="str">
+      <c r="P47" s="5">
         <f>O47*F47</f>
         <v>0</v>
       </c>
       <c r="Q47" s="7"/>
-      <c r="R47" s="5" t="str">
+      <c r="R47" s="5">
         <f>Q47*F47</f>
         <v>0</v>
       </c>
@@ -5913,32 +5929,32 @@
         <v>1.45</v>
       </c>
       <c r="G48" s="22"/>
-      <c r="H48" s="5" t="str">
+      <c r="H48" s="5">
         <f>G48*F48</f>
         <v>0</v>
       </c>
       <c r="I48" s="22"/>
-      <c r="J48" s="5" t="str">
+      <c r="J48" s="5">
         <f>I48*F48</f>
         <v>0</v>
       </c>
       <c r="K48" s="54"/>
-      <c r="L48" s="5" t="str">
+      <c r="L48" s="5">
         <f>K48*F48</f>
         <v>0</v>
       </c>
       <c r="M48" s="7"/>
-      <c r="N48" s="5" t="str">
+      <c r="N48" s="5">
         <f>M48*F48</f>
         <v>0</v>
       </c>
       <c r="O48" s="7"/>
-      <c r="P48" s="5" t="str">
+      <c r="P48" s="5">
         <f>O48*F48</f>
         <v>0</v>
       </c>
       <c r="Q48" s="7"/>
-      <c r="R48" s="5" t="str">
+      <c r="R48" s="5">
         <f>Q48*F48</f>
         <v>0</v>
       </c>
@@ -5967,32 +5983,32 @@
         <v>1.15</v>
       </c>
       <c r="G49" s="22"/>
-      <c r="H49" s="5" t="str">
+      <c r="H49" s="5">
         <f>G49*F49</f>
         <v>0</v>
       </c>
       <c r="I49" s="22"/>
-      <c r="J49" s="5" t="str">
+      <c r="J49" s="5">
         <f>I49*F49</f>
         <v>0</v>
       </c>
       <c r="K49" s="48"/>
-      <c r="L49" s="5" t="str">
+      <c r="L49" s="5">
         <f>K49*F49</f>
         <v>0</v>
       </c>
       <c r="M49" s="7"/>
-      <c r="N49" s="5" t="str">
+      <c r="N49" s="5">
         <f>M49*F49</f>
         <v>0</v>
       </c>
       <c r="O49" s="7"/>
-      <c r="P49" s="5" t="str">
+      <c r="P49" s="5">
         <f>O49*F49</f>
         <v>0</v>
       </c>
       <c r="Q49" s="7"/>
-      <c r="R49" s="5" t="str">
+      <c r="R49" s="5">
         <f>Q49*F49</f>
         <v>0</v>
       </c>
@@ -6021,32 +6037,32 @@
         <v>1.37</v>
       </c>
       <c r="G50" s="22"/>
-      <c r="H50" s="5" t="str">
+      <c r="H50" s="5">
         <f>G50*F50</f>
         <v>0</v>
       </c>
       <c r="I50" s="22"/>
-      <c r="J50" s="5" t="str">
+      <c r="J50" s="5">
         <f>I50*F50</f>
         <v>0</v>
       </c>
       <c r="K50" s="48"/>
-      <c r="L50" s="5" t="str">
+      <c r="L50" s="5">
         <f>K50*F50</f>
         <v>0</v>
       </c>
       <c r="M50" s="7"/>
-      <c r="N50" s="5" t="str">
+      <c r="N50" s="5">
         <f>M50*F50</f>
         <v>0</v>
       </c>
       <c r="O50" s="7"/>
-      <c r="P50" s="5" t="str">
+      <c r="P50" s="5">
         <f>O50*F50</f>
         <v>0</v>
       </c>
       <c r="Q50" s="7"/>
-      <c r="R50" s="5" t="str">
+      <c r="R50" s="5">
         <f>Q50*F50</f>
         <v>0</v>
       </c>
@@ -6075,32 +6091,32 @@
         <v>1.64</v>
       </c>
       <c r="G51" s="22"/>
-      <c r="H51" s="5" t="str">
+      <c r="H51" s="5">
         <f>G51*F51</f>
         <v>0</v>
       </c>
       <c r="I51" s="22"/>
-      <c r="J51" s="5" t="str">
+      <c r="J51" s="5">
         <f>I51*F51</f>
         <v>0</v>
       </c>
       <c r="K51" s="7"/>
-      <c r="L51" s="5" t="str">
+      <c r="L51" s="5">
         <f>K51*F51</f>
         <v>0</v>
       </c>
       <c r="M51" s="7"/>
-      <c r="N51" s="5" t="str">
+      <c r="N51" s="5">
         <f>M51*F51</f>
         <v>0</v>
       </c>
       <c r="O51" s="7"/>
-      <c r="P51" s="5" t="str">
+      <c r="P51" s="5">
         <f>O51*F51</f>
         <v>0</v>
       </c>
       <c r="Q51" s="7"/>
-      <c r="R51" s="5" t="str">
+      <c r="R51" s="5">
         <f>Q51*F51</f>
         <v>0</v>
       </c>
@@ -6129,32 +6145,32 @@
         <v>0.64</v>
       </c>
       <c r="G52" s="29"/>
-      <c r="H52" s="5" t="str">
+      <c r="H52" s="5">
         <f>G52*F52</f>
         <v>0</v>
       </c>
       <c r="I52" s="22"/>
-      <c r="J52" s="5" t="str">
+      <c r="J52" s="5">
         <f>I52*F52</f>
         <v>0</v>
       </c>
       <c r="K52" s="48"/>
-      <c r="L52" s="5" t="str">
+      <c r="L52" s="5">
         <f>K52*F52</f>
         <v>0</v>
       </c>
       <c r="M52" s="7"/>
-      <c r="N52" s="5" t="str">
+      <c r="N52" s="5">
         <f>M52*F52</f>
         <v>0</v>
       </c>
       <c r="O52" s="7"/>
-      <c r="P52" s="5" t="str">
+      <c r="P52" s="5">
         <f>O52*F52</f>
         <v>0</v>
       </c>
       <c r="Q52" s="7"/>
-      <c r="R52" s="5" t="str">
+      <c r="R52" s="5">
         <f>Q52*F52</f>
         <v>0</v>
       </c>
@@ -6183,32 +6199,32 @@
         <v>2.96</v>
       </c>
       <c r="G53" s="29"/>
-      <c r="H53" s="5" t="str">
+      <c r="H53" s="5">
         <f>G53*F53</f>
         <v>0</v>
       </c>
       <c r="I53" s="22"/>
-      <c r="J53" s="5" t="str">
+      <c r="J53" s="5">
         <f>I53*F53</f>
         <v>0</v>
       </c>
       <c r="K53" s="7"/>
-      <c r="L53" s="5" t="str">
+      <c r="L53" s="5">
         <f>K53*F53</f>
         <v>0</v>
       </c>
       <c r="M53" s="7"/>
-      <c r="N53" s="5" t="str">
+      <c r="N53" s="5">
         <f>M53*F53</f>
         <v>0</v>
       </c>
       <c r="O53" s="7"/>
-      <c r="P53" s="5" t="str">
+      <c r="P53" s="5">
         <f>O53*F53</f>
         <v>0</v>
       </c>
       <c r="Q53" s="7"/>
-      <c r="R53" s="5" t="str">
+      <c r="R53" s="5">
         <f>Q53*F53</f>
         <v>0</v>
       </c>
@@ -6237,32 +6253,32 @@
         <v>2.36</v>
       </c>
       <c r="G54" s="49"/>
-      <c r="H54" s="5" t="str">
+      <c r="H54" s="5">
         <f>G54*F54</f>
         <v>0</v>
       </c>
       <c r="I54" s="22"/>
-      <c r="J54" s="5" t="str">
+      <c r="J54" s="5">
         <f>I54*F54</f>
         <v>0</v>
       </c>
       <c r="K54" s="22"/>
-      <c r="L54" s="5" t="str">
+      <c r="L54" s="5">
         <f>K54*F54</f>
         <v>0</v>
       </c>
       <c r="M54" s="22"/>
-      <c r="N54" s="5" t="str">
+      <c r="N54" s="5">
         <f>M54*F54</f>
         <v>0</v>
       </c>
       <c r="O54" s="7"/>
-      <c r="P54" s="5" t="str">
+      <c r="P54" s="5">
         <f>O54*F54</f>
         <v>0</v>
       </c>
       <c r="Q54" s="7"/>
-      <c r="R54" s="5" t="str">
+      <c r="R54" s="5">
         <f>Q54*F54</f>
         <v>0</v>
       </c>
@@ -6291,32 +6307,32 @@
         <v>1.84</v>
       </c>
       <c r="G55" s="29"/>
-      <c r="H55" s="5" t="str">
+      <c r="H55" s="5">
         <f>G55*F55</f>
         <v>0</v>
       </c>
       <c r="I55" s="22"/>
-      <c r="J55" s="5" t="str">
+      <c r="J55" s="5">
         <f>I55*F55</f>
         <v>0</v>
       </c>
       <c r="K55" s="22"/>
-      <c r="L55" s="5" t="str">
+      <c r="L55" s="5">
         <f>K55*F55</f>
         <v>0</v>
       </c>
       <c r="M55" s="22"/>
-      <c r="N55" s="5" t="str">
+      <c r="N55" s="5">
         <f>M55*F55</f>
         <v>0</v>
       </c>
       <c r="O55" s="7"/>
-      <c r="P55" s="5" t="str">
+      <c r="P55" s="5">
         <f>O55*F55</f>
         <v>0</v>
       </c>
       <c r="Q55" s="7"/>
-      <c r="R55" s="5" t="str">
+      <c r="R55" s="5">
         <f>Q55*F55</f>
         <v>0</v>
       </c>
@@ -6386,27 +6402,27 @@
         <v>0</v>
       </c>
       <c r="I57" s="22"/>
-      <c r="J57" s="5" t="str">
+      <c r="J57" s="5">
         <f>I57*F57</f>
         <v>0</v>
       </c>
       <c r="K57" s="22"/>
-      <c r="L57" s="5" t="str">
+      <c r="L57" s="5">
         <f>K57*F57</f>
         <v>0</v>
       </c>
       <c r="M57" s="22"/>
-      <c r="N57" s="56" t="str">
+      <c r="N57" s="56">
         <f>M57*F57</f>
         <v>0</v>
       </c>
       <c r="O57" s="22"/>
-      <c r="P57" s="5" t="str">
+      <c r="P57" s="5">
         <f>O57*F57</f>
         <v>0</v>
       </c>
       <c r="Q57" s="7"/>
-      <c r="R57" s="5" t="str">
+      <c r="R57" s="5">
         <f>Q57*F57</f>
         <v>0</v>
       </c>
@@ -6440,27 +6456,27 @@
         <v>0</v>
       </c>
       <c r="I58" s="22"/>
-      <c r="J58" s="5" t="str">
+      <c r="J58" s="5">
         <f>I58*F58</f>
         <v>0</v>
       </c>
       <c r="K58" s="22"/>
-      <c r="L58" s="5" t="str">
+      <c r="L58" s="5">
         <f>K58*F58</f>
         <v>0</v>
       </c>
       <c r="M58" s="22"/>
-      <c r="N58" s="5" t="str">
+      <c r="N58" s="5">
         <f>M58*F58</f>
         <v>0</v>
       </c>
       <c r="O58" s="22"/>
-      <c r="P58" s="5" t="str">
+      <c r="P58" s="5">
         <f>O58*F58</f>
         <v>0</v>
       </c>
       <c r="Q58" s="7"/>
-      <c r="R58" s="5" t="str">
+      <c r="R58" s="5">
         <f>Q58*F58</f>
         <v>0</v>
       </c>
@@ -6488,33 +6504,35 @@
       <c r="F59" s="39">
         <v>0.98</v>
       </c>
-      <c r="G59" s="22"/>
-      <c r="H59" s="5" t="str">
+      <c r="G59" s="22">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
         <f>G59*F59</f>
         <v>0</v>
       </c>
       <c r="I59" s="22"/>
-      <c r="J59" s="5" t="str">
+      <c r="J59" s="5">
         <f>I59*F59</f>
         <v>0</v>
       </c>
       <c r="K59" s="22"/>
-      <c r="L59" s="5" t="str">
+      <c r="L59" s="5">
         <f>K59*F59</f>
         <v>0</v>
       </c>
       <c r="M59" s="7"/>
-      <c r="N59" s="5" t="str">
+      <c r="N59" s="5">
         <f>M59*F59</f>
         <v>0</v>
       </c>
       <c r="O59" s="22"/>
-      <c r="P59" s="5" t="str">
+      <c r="P59" s="5">
         <f>O59*F59</f>
         <v>0</v>
       </c>
       <c r="Q59" s="7"/>
-      <c r="R59" s="5" t="str">
+      <c r="R59" s="5">
         <f>Q59*F59</f>
         <v>0</v>
       </c>
@@ -6542,33 +6560,35 @@
       <c r="F60" s="39">
         <v>1.2</v>
       </c>
-      <c r="G60" s="22"/>
-      <c r="H60" s="5" t="str">
+      <c r="G60" s="22">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
         <f>G60*F60</f>
         <v>0</v>
       </c>
       <c r="I60" s="22"/>
-      <c r="J60" s="5" t="str">
+      <c r="J60" s="5">
         <f>I60*F60</f>
         <v>0</v>
       </c>
       <c r="K60" s="22"/>
-      <c r="L60" s="5" t="str">
+      <c r="L60" s="5">
         <f>K60*F60</f>
         <v>0</v>
       </c>
       <c r="M60" s="7"/>
-      <c r="N60" s="5" t="str">
+      <c r="N60" s="5">
         <f>M60*F60</f>
         <v>0</v>
       </c>
       <c r="O60" s="22"/>
-      <c r="P60" s="5" t="str">
+      <c r="P60" s="5">
         <f>O60*F60</f>
         <v>0</v>
       </c>
       <c r="Q60" s="22"/>
-      <c r="R60" s="5" t="str">
+      <c r="R60" s="5">
         <f>Q60*F60</f>
         <v>0</v>
       </c>
@@ -6596,33 +6616,35 @@
       <c r="F61" s="39">
         <v>1.47</v>
       </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="5" t="str">
+      <c r="G61" s="29">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5">
         <f>G61*F61</f>
         <v>0</v>
       </c>
       <c r="I61" s="22"/>
-      <c r="J61" s="5" t="str">
+      <c r="J61" s="5">
         <f>I61*F61</f>
         <v>0</v>
       </c>
       <c r="K61" s="22"/>
-      <c r="L61" s="5" t="str">
+      <c r="L61" s="5">
         <f>K61*F61</f>
         <v>0</v>
       </c>
       <c r="M61" s="7"/>
-      <c r="N61" s="5" t="str">
+      <c r="N61" s="5">
         <f>M61*F61</f>
         <v>0</v>
       </c>
       <c r="O61" s="22"/>
-      <c r="P61" s="5" t="str">
+      <c r="P61" s="5">
         <f>O61*F61</f>
         <v>0</v>
       </c>
       <c r="Q61" s="7"/>
-      <c r="R61" s="5" t="str">
+      <c r="R61" s="5">
         <f>Q61*F61</f>
         <v>0</v>
       </c>
@@ -6650,33 +6672,35 @@
       <c r="F62" s="39">
         <v>0.54</v>
       </c>
-      <c r="G62" s="22"/>
-      <c r="H62" s="5" t="str">
+      <c r="G62" s="22">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
         <f>G62*F62</f>
         <v>0</v>
       </c>
       <c r="I62" s="22"/>
-      <c r="J62" s="5" t="str">
+      <c r="J62" s="5">
         <f>I62*F62</f>
         <v>0</v>
       </c>
       <c r="K62" s="22"/>
-      <c r="L62" s="5" t="str">
+      <c r="L62" s="5">
         <f>K62*F62</f>
         <v>0</v>
       </c>
       <c r="M62" s="7"/>
-      <c r="N62" s="5" t="str">
+      <c r="N62" s="5">
         <f>M62*F62</f>
         <v>0</v>
       </c>
       <c r="O62" s="22"/>
-      <c r="P62" s="5" t="str">
+      <c r="P62" s="5">
         <f>O62*F62</f>
         <v>0</v>
       </c>
       <c r="Q62" s="7"/>
-      <c r="R62" s="5" t="str">
+      <c r="R62" s="5">
         <f>Q62*F62</f>
         <v>0</v>
       </c>
@@ -6705,32 +6729,32 @@
         <v>1.96</v>
       </c>
       <c r="G63" s="22"/>
-      <c r="H63" s="5" t="str">
+      <c r="H63" s="5">
         <f>G63*F63</f>
         <v>0</v>
       </c>
       <c r="I63" s="22"/>
-      <c r="J63" s="5" t="str">
+      <c r="J63" s="5">
         <f>I63*F63</f>
         <v>0</v>
       </c>
       <c r="K63" s="22"/>
-      <c r="L63" s="5" t="str">
+      <c r="L63" s="5">
         <f>K63*F63</f>
         <v>0</v>
       </c>
       <c r="M63" s="7"/>
-      <c r="N63" s="5" t="str">
+      <c r="N63" s="5">
         <f>M63*F63</f>
         <v>0</v>
       </c>
       <c r="O63" s="22"/>
-      <c r="P63" s="5" t="str">
+      <c r="P63" s="5">
         <f>O63*F63</f>
         <v>0</v>
       </c>
       <c r="Q63" s="7"/>
-      <c r="R63" s="5" t="str">
+      <c r="R63" s="5">
         <f>Q63*F63</f>
         <v>0</v>
       </c>
@@ -6759,32 +6783,32 @@
         <v>0.98</v>
       </c>
       <c r="G64" s="22"/>
-      <c r="H64" s="5" t="str">
+      <c r="H64" s="5">
         <f>G64*F64</f>
         <v>0</v>
       </c>
       <c r="I64" s="22"/>
-      <c r="J64" s="5" t="str">
+      <c r="J64" s="5">
         <f>I64*F64</f>
         <v>0</v>
       </c>
       <c r="K64" s="22"/>
-      <c r="L64" s="5" t="str">
+      <c r="L64" s="5">
         <f>K64*F64</f>
         <v>0</v>
       </c>
       <c r="M64" s="22"/>
-      <c r="N64" s="5" t="str">
+      <c r="N64" s="5">
         <f>M64*F64</f>
         <v>0</v>
       </c>
       <c r="O64" s="22"/>
-      <c r="P64" s="5" t="str">
+      <c r="P64" s="5">
         <f>O64*F64</f>
         <v>0</v>
       </c>
       <c r="Q64" s="22"/>
-      <c r="R64" s="5" t="str">
+      <c r="R64" s="5">
         <f>Q64*F64</f>
         <v>0</v>
       </c>
@@ -6849,32 +6873,32 @@
         <v>0.95</v>
       </c>
       <c r="G66" s="22"/>
-      <c r="H66" s="5" t="str">
+      <c r="H66" s="5">
         <f>G66*F66</f>
         <v>0</v>
       </c>
       <c r="I66" s="22"/>
-      <c r="J66" s="5" t="str">
+      <c r="J66" s="5">
         <f>I66*F66</f>
         <v>0</v>
       </c>
       <c r="K66" s="22"/>
-      <c r="L66" s="5" t="str">
+      <c r="L66" s="5">
         <f>K66*F66</f>
         <v>0</v>
       </c>
       <c r="M66" s="22"/>
-      <c r="N66" s="5" t="str">
+      <c r="N66" s="5">
         <f>M66*F66</f>
         <v>0</v>
       </c>
       <c r="O66" s="22"/>
-      <c r="P66" s="5" t="str">
+      <c r="P66" s="5">
         <f>O66*F66</f>
         <v>0</v>
       </c>
       <c r="Q66" s="22"/>
-      <c r="R66" s="5" t="str">
+      <c r="R66" s="5">
         <f>Q66*F66</f>
         <v>0</v>
       </c>
@@ -6903,32 +6927,32 @@
         <v>0.76</v>
       </c>
       <c r="G67" s="22"/>
-      <c r="H67" s="5" t="str">
+      <c r="H67" s="5">
         <f>G67*F67</f>
         <v>0</v>
       </c>
       <c r="I67" s="22"/>
-      <c r="J67" s="5" t="str">
+      <c r="J67" s="5">
         <f>I67*F67</f>
         <v>0</v>
       </c>
       <c r="K67" s="22"/>
-      <c r="L67" s="5" t="str">
+      <c r="L67" s="5">
         <f>K67*F67</f>
         <v>0</v>
       </c>
       <c r="M67" s="22"/>
-      <c r="N67" s="5" t="str">
+      <c r="N67" s="5">
         <f>M67*F67</f>
         <v>0</v>
       </c>
       <c r="O67" s="22"/>
-      <c r="P67" s="5" t="str">
+      <c r="P67" s="5">
         <f>O67*F67</f>
         <v>0</v>
       </c>
       <c r="Q67" s="22"/>
-      <c r="R67" s="5" t="str">
+      <c r="R67" s="5">
         <f>Q67*F67</f>
         <v>0</v>
       </c>
@@ -6957,32 +6981,32 @@
         <v>0.98</v>
       </c>
       <c r="G68" s="22"/>
-      <c r="H68" s="5" t="str">
+      <c r="H68" s="5">
         <f>G68*F68</f>
         <v>0</v>
       </c>
       <c r="I68" s="22"/>
-      <c r="J68" s="5" t="str">
+      <c r="J68" s="5">
         <f>I68*F68</f>
         <v>0</v>
       </c>
       <c r="K68" s="22"/>
-      <c r="L68" s="5" t="str">
+      <c r="L68" s="5">
         <f>K68*F68</f>
         <v>0</v>
       </c>
       <c r="M68" s="22"/>
-      <c r="N68" s="5" t="str">
+      <c r="N68" s="5">
         <f>M68*F68</f>
         <v>0</v>
       </c>
       <c r="O68" s="22"/>
-      <c r="P68" s="5" t="str">
+      <c r="P68" s="5">
         <f>O68*F68</f>
         <v>0</v>
       </c>
       <c r="Q68" s="22"/>
-      <c r="R68" s="5" t="str">
+      <c r="R68" s="5">
         <f>Q68*F68</f>
         <v>0</v>
       </c>
@@ -7011,32 +7035,32 @@
         <v>0.43</v>
       </c>
       <c r="G69" s="22"/>
-      <c r="H69" s="5" t="str">
+      <c r="H69" s="5">
         <f>G69*F69</f>
         <v>0</v>
       </c>
       <c r="I69" s="22"/>
-      <c r="J69" s="5" t="str">
+      <c r="J69" s="5">
         <f>I69*F69</f>
         <v>0</v>
       </c>
       <c r="K69" s="22"/>
-      <c r="L69" s="5" t="str">
+      <c r="L69" s="5">
         <f>K69*F69</f>
         <v>0</v>
       </c>
       <c r="M69" s="22"/>
-      <c r="N69" s="5" t="str">
+      <c r="N69" s="5">
         <f>M69*F69</f>
         <v>0</v>
       </c>
       <c r="O69" s="22"/>
-      <c r="P69" s="5" t="str">
+      <c r="P69" s="5">
         <f>O69*F69</f>
         <v>0</v>
       </c>
       <c r="Q69" s="22"/>
-      <c r="R69" s="5" t="str">
+      <c r="R69" s="5">
         <f>Q69*F69</f>
         <v>0</v>
       </c>
@@ -7065,32 +7089,32 @@
         <v>1.28</v>
       </c>
       <c r="G70" s="22"/>
-      <c r="H70" s="5" t="str">
+      <c r="H70" s="5">
         <f>G70*F70</f>
         <v>0</v>
       </c>
       <c r="I70" s="22"/>
-      <c r="J70" s="5" t="str">
+      <c r="J70" s="5">
         <f>I70*F70</f>
         <v>0</v>
       </c>
       <c r="K70" s="22"/>
-      <c r="L70" s="5" t="str">
+      <c r="L70" s="5">
         <f>K70*F70</f>
         <v>0</v>
       </c>
       <c r="M70" s="22"/>
-      <c r="N70" s="5" t="str">
+      <c r="N70" s="5">
         <f>M70*F70</f>
         <v>0</v>
       </c>
       <c r="O70" s="22"/>
-      <c r="P70" s="5" t="str">
+      <c r="P70" s="5">
         <f>O70*F70</f>
         <v>0</v>
       </c>
       <c r="Q70" s="22"/>
-      <c r="R70" s="5" t="str">
+      <c r="R70" s="5">
         <f>Q70*F70</f>
         <v>0</v>
       </c>
@@ -7119,32 +7143,32 @@
         <v>1.13</v>
       </c>
       <c r="G71" s="22"/>
-      <c r="H71" s="5" t="str">
+      <c r="H71" s="5">
         <f>G71*F71</f>
         <v>0</v>
       </c>
       <c r="I71" s="22"/>
-      <c r="J71" s="5" t="str">
+      <c r="J71" s="5">
         <f>I71*F71</f>
         <v>0</v>
       </c>
       <c r="K71" s="22"/>
-      <c r="L71" s="5" t="str">
+      <c r="L71" s="5">
         <f>K71*F71</f>
         <v>0</v>
       </c>
       <c r="M71" s="22"/>
-      <c r="N71" s="5" t="str">
+      <c r="N71" s="5">
         <f>M71*F71</f>
         <v>0</v>
       </c>
       <c r="O71" s="22"/>
-      <c r="P71" s="5" t="str">
+      <c r="P71" s="5">
         <f>O71*F71</f>
         <v>0</v>
       </c>
       <c r="Q71" s="22"/>
-      <c r="R71" s="5" t="str">
+      <c r="R71" s="5">
         <f>Q71*F71</f>
         <v>0</v>
       </c>
@@ -7167,32 +7191,32 @@
       </c>
       <c r="F72" s="62"/>
       <c r="G72" s="22"/>
-      <c r="H72" s="5" t="str">
+      <c r="H72" s="5">
         <f>G72*F72</f>
         <v>0</v>
       </c>
       <c r="I72" s="22"/>
-      <c r="J72" s="5" t="str">
+      <c r="J72" s="5">
         <f>I72*F72</f>
         <v>0</v>
       </c>
       <c r="K72" s="22"/>
-      <c r="L72" s="5" t="str">
+      <c r="L72" s="5">
         <f>K72*F72</f>
         <v>0</v>
       </c>
       <c r="M72" s="22"/>
-      <c r="N72" s="5" t="str">
+      <c r="N72" s="5">
         <f>M72*F72</f>
         <v>0</v>
       </c>
       <c r="O72" s="22"/>
-      <c r="P72" s="5" t="str">
+      <c r="P72" s="5">
         <f>O72*F72</f>
         <v>0</v>
       </c>
       <c r="Q72" s="22"/>
-      <c r="R72" s="5" t="str">
+      <c r="R72" s="5">
         <f>Q72*F72</f>
         <v>0</v>
       </c>
@@ -7247,32 +7271,32 @@
       </c>
       <c r="F74" s="72"/>
       <c r="G74" s="29"/>
-      <c r="H74" s="5" t="str">
+      <c r="H74" s="5">
         <f>G74*F74</f>
         <v>0</v>
       </c>
       <c r="I74" s="22"/>
-      <c r="J74" s="5" t="str">
+      <c r="J74" s="5">
         <f>I74*F74</f>
         <v>0</v>
       </c>
       <c r="K74" s="7"/>
-      <c r="L74" s="5" t="str">
+      <c r="L74" s="5">
         <f>K74*F74</f>
         <v>0</v>
       </c>
       <c r="M74" s="7"/>
-      <c r="N74" s="5" t="str">
+      <c r="N74" s="5">
         <f>M74*F74</f>
         <v>0</v>
       </c>
       <c r="O74" s="7"/>
-      <c r="P74" s="5" t="str">
+      <c r="P74" s="5">
         <f>O74*F74</f>
         <v>0</v>
       </c>
       <c r="Q74" s="7"/>
-      <c r="R74" s="5" t="str">
+      <c r="R74" s="5">
         <f>Q74*F74</f>
         <v>0</v>
       </c>
@@ -7299,32 +7323,32 @@
         <v>1.4</v>
       </c>
       <c r="G75" s="29"/>
-      <c r="H75" s="5" t="str">
+      <c r="H75" s="5">
         <f>G75*F75</f>
         <v>0</v>
       </c>
       <c r="I75" s="22"/>
-      <c r="J75" s="5" t="str">
+      <c r="J75" s="5">
         <f>I75*F75</f>
         <v>0</v>
       </c>
       <c r="K75" s="7"/>
-      <c r="L75" s="5" t="str">
+      <c r="L75" s="5">
         <f>K75*F75</f>
         <v>0</v>
       </c>
       <c r="M75" s="7"/>
-      <c r="N75" s="5" t="str">
+      <c r="N75" s="5">
         <f>M75*F75</f>
         <v>0</v>
       </c>
       <c r="O75" s="7"/>
-      <c r="P75" s="5" t="str">
+      <c r="P75" s="5">
         <f>O75*F75</f>
         <v>0</v>
       </c>
       <c r="Q75" s="7"/>
-      <c r="R75" s="5" t="str">
+      <c r="R75" s="5">
         <f>Q75*F75</f>
         <v>0</v>
       </c>
@@ -7353,32 +7377,32 @@
         <v>0.61</v>
       </c>
       <c r="G76" s="29"/>
-      <c r="H76" s="5" t="str">
+      <c r="H76" s="5">
         <f>G76*F76</f>
         <v>0</v>
       </c>
       <c r="I76" s="22"/>
-      <c r="J76" s="5" t="str">
+      <c r="J76" s="5">
         <f>I76*F76</f>
         <v>0</v>
       </c>
       <c r="K76" s="7"/>
-      <c r="L76" s="5" t="str">
+      <c r="L76" s="5">
         <f>K76*F76</f>
         <v>0</v>
       </c>
       <c r="M76" s="7"/>
-      <c r="N76" s="5" t="str">
+      <c r="N76" s="5">
         <f>M76*F76</f>
         <v>0</v>
       </c>
       <c r="O76" s="7"/>
-      <c r="P76" s="5" t="str">
+      <c r="P76" s="5">
         <f>O76*F76</f>
         <v>0</v>
       </c>
       <c r="Q76" s="7"/>
-      <c r="R76" s="5" t="str">
+      <c r="R76" s="5">
         <f>Q76*F76</f>
         <v>0</v>
       </c>
@@ -7407,32 +7431,32 @@
         <v>1.08</v>
       </c>
       <c r="G77" s="29"/>
-      <c r="H77" s="5" t="str">
+      <c r="H77" s="5">
         <f>G77*F77</f>
         <v>0</v>
       </c>
       <c r="I77" s="22"/>
-      <c r="J77" s="5" t="str">
+      <c r="J77" s="5">
         <f>I77*F77</f>
         <v>0</v>
       </c>
       <c r="K77" s="7"/>
-      <c r="L77" s="5" t="str">
+      <c r="L77" s="5">
         <f>K77*F77</f>
         <v>0</v>
       </c>
       <c r="M77" s="7"/>
-      <c r="N77" s="5" t="str">
+      <c r="N77" s="5">
         <f>M77*F77</f>
         <v>0</v>
       </c>
       <c r="O77" s="7"/>
-      <c r="P77" s="5" t="str">
+      <c r="P77" s="5">
         <f>O77*F77</f>
         <v>0</v>
       </c>
       <c r="Q77" s="7"/>
-      <c r="R77" s="5" t="str">
+      <c r="R77" s="5">
         <f>Q77*F77</f>
         <v>0</v>
       </c>
@@ -7461,32 +7485,32 @@
         <v>0.83</v>
       </c>
       <c r="G78" s="29"/>
-      <c r="H78" s="5" t="str">
+      <c r="H78" s="5">
         <f>G78*F78</f>
         <v>0</v>
       </c>
       <c r="I78" s="22"/>
-      <c r="J78" s="5" t="str">
+      <c r="J78" s="5">
         <f>I78*F78</f>
         <v>0</v>
       </c>
       <c r="K78" s="7"/>
-      <c r="L78" s="5" t="str">
+      <c r="L78" s="5">
         <f>K78*F78</f>
         <v>0</v>
       </c>
       <c r="M78" s="7"/>
-      <c r="N78" s="5" t="str">
+      <c r="N78" s="5">
         <f>M78*F78</f>
         <v>0</v>
       </c>
       <c r="O78" s="7"/>
-      <c r="P78" s="5" t="str">
+      <c r="P78" s="5">
         <f>O78*F78</f>
         <v>0</v>
       </c>
       <c r="Q78" s="7"/>
-      <c r="R78" s="5" t="str">
+      <c r="R78" s="5">
         <f>Q78*F78</f>
         <v>0</v>
       </c>
@@ -7513,32 +7537,32 @@
         <v>0.4</v>
       </c>
       <c r="G79" s="51"/>
-      <c r="H79" s="5" t="str">
+      <c r="H79" s="5">
         <f>G79*F79</f>
         <v>0</v>
       </c>
       <c r="I79" s="22"/>
-      <c r="J79" s="5" t="str">
+      <c r="J79" s="5">
         <f>I79*F79</f>
         <v>0</v>
       </c>
       <c r="K79" s="7"/>
-      <c r="L79" s="5" t="str">
+      <c r="L79" s="5">
         <f>K79*F79</f>
         <v>0</v>
       </c>
       <c r="M79" s="7"/>
-      <c r="N79" s="5" t="str">
+      <c r="N79" s="5">
         <f>M79*F79</f>
         <v>0</v>
       </c>
       <c r="O79" s="7"/>
-      <c r="P79" s="5" t="str">
+      <c r="P79" s="5">
         <f>O79*F79</f>
         <v>0</v>
       </c>
       <c r="Q79" s="7"/>
-      <c r="R79" s="5" t="str">
+      <c r="R79" s="5">
         <f>Q79*F79</f>
         <v>0</v>
       </c>
@@ -7565,32 +7589,32 @@
         <v>0.59</v>
       </c>
       <c r="G80" s="29"/>
-      <c r="H80" s="5" t="str">
+      <c r="H80" s="5">
         <f>G80*F80</f>
         <v>0</v>
       </c>
       <c r="I80" s="22"/>
-      <c r="J80" s="5" t="str">
+      <c r="J80" s="5">
         <f>I80*F80</f>
         <v>0</v>
       </c>
       <c r="K80" s="7"/>
-      <c r="L80" s="5" t="str">
+      <c r="L80" s="5">
         <f>K80*F80</f>
         <v>0</v>
       </c>
       <c r="M80" s="7"/>
-      <c r="N80" s="5" t="str">
+      <c r="N80" s="5">
         <f>M80*F80</f>
         <v>0</v>
       </c>
       <c r="O80" s="7"/>
-      <c r="P80" s="5" t="str">
+      <c r="P80" s="5">
         <f>O80*F80</f>
         <v>0</v>
       </c>
       <c r="Q80" s="7"/>
-      <c r="R80" s="5" t="str">
+      <c r="R80" s="5">
         <f>Q80*F80</f>
         <v>0</v>
       </c>
@@ -7617,32 +7641,32 @@
         <v>0.62</v>
       </c>
       <c r="G81" s="29"/>
-      <c r="H81" s="5" t="str">
+      <c r="H81" s="5">
         <f>G81*F81</f>
         <v>0</v>
       </c>
       <c r="I81" s="22"/>
-      <c r="J81" s="5" t="str">
+      <c r="J81" s="5">
         <f>I81*F81</f>
         <v>0</v>
       </c>
       <c r="K81" s="7"/>
-      <c r="L81" s="5" t="str">
+      <c r="L81" s="5">
         <f>K81*F81</f>
         <v>0</v>
       </c>
       <c r="M81" s="7"/>
-      <c r="N81" s="5" t="str">
+      <c r="N81" s="5">
         <f>M81*F81</f>
         <v>0</v>
       </c>
       <c r="O81" s="7"/>
-      <c r="P81" s="5" t="str">
+      <c r="P81" s="5">
         <f>O81*F81</f>
         <v>0</v>
       </c>
       <c r="Q81" s="7"/>
-      <c r="R81" s="5" t="str">
+      <c r="R81" s="5">
         <f>Q81*F81</f>
         <v>0</v>
       </c>
@@ -7669,32 +7693,32 @@
         <v>0.66</v>
       </c>
       <c r="G82" s="29"/>
-      <c r="H82" s="5" t="str">
+      <c r="H82" s="5">
         <f>G82*F82</f>
         <v>0</v>
       </c>
       <c r="I82" s="22"/>
-      <c r="J82" s="5" t="str">
+      <c r="J82" s="5">
         <f>I82*F82</f>
         <v>0</v>
       </c>
       <c r="K82" s="7"/>
-      <c r="L82" s="5" t="str">
+      <c r="L82" s="5">
         <f>K82*F82</f>
         <v>0</v>
       </c>
       <c r="M82" s="7"/>
-      <c r="N82" s="5" t="str">
+      <c r="N82" s="5">
         <f>M82*F82</f>
         <v>0</v>
       </c>
       <c r="O82" s="7"/>
-      <c r="P82" s="5" t="str">
+      <c r="P82" s="5">
         <f>O82*F82</f>
         <v>0</v>
       </c>
       <c r="Q82" s="7"/>
-      <c r="R82" s="5" t="str">
+      <c r="R82" s="5">
         <f>Q82*F82</f>
         <v>0</v>
       </c>
@@ -7721,32 +7745,32 @@
         <v>0.67</v>
       </c>
       <c r="G83" s="29"/>
-      <c r="H83" s="5" t="str">
+      <c r="H83" s="5">
         <f>G83*F83</f>
         <v>0</v>
       </c>
       <c r="I83" s="22"/>
-      <c r="J83" s="5" t="str">
+      <c r="J83" s="5">
         <f>I83*F83</f>
         <v>0</v>
       </c>
       <c r="K83" s="7"/>
-      <c r="L83" s="5" t="str">
+      <c r="L83" s="5">
         <f>K83*F83</f>
         <v>0</v>
       </c>
       <c r="M83" s="7"/>
-      <c r="N83" s="5" t="str">
+      <c r="N83" s="5">
         <f>M83*F83</f>
         <v>0</v>
       </c>
       <c r="O83" s="7"/>
-      <c r="P83" s="5" t="str">
+      <c r="P83" s="5">
         <f>O83*F83</f>
         <v>0</v>
       </c>
       <c r="Q83" s="7"/>
-      <c r="R83" s="5" t="str">
+      <c r="R83" s="5">
         <f>Q83*F83</f>
         <v>0</v>
       </c>
@@ -7773,32 +7797,32 @@
         <v>0.71</v>
       </c>
       <c r="G84" s="29"/>
-      <c r="H84" s="5" t="str">
+      <c r="H84" s="5">
         <f>G84*F84</f>
         <v>0</v>
       </c>
       <c r="I84" s="22"/>
-      <c r="J84" s="5" t="str">
+      <c r="J84" s="5">
         <f>I84*F84</f>
         <v>0</v>
       </c>
       <c r="K84" s="7"/>
-      <c r="L84" s="5" t="str">
+      <c r="L84" s="5">
         <f>K84*F84</f>
         <v>0</v>
       </c>
       <c r="M84" s="7"/>
-      <c r="N84" s="5" t="str">
+      <c r="N84" s="5">
         <f>M84*F84</f>
         <v>0</v>
       </c>
       <c r="O84" s="7"/>
-      <c r="P84" s="5" t="str">
+      <c r="P84" s="5">
         <f>O84*F84</f>
         <v>0</v>
       </c>
       <c r="Q84" s="7"/>
-      <c r="R84" s="5" t="str">
+      <c r="R84" s="5">
         <f>Q84*F84</f>
         <v>0</v>
       </c>
@@ -7825,32 +7849,32 @@
         <v>0.75</v>
       </c>
       <c r="G85" s="29"/>
-      <c r="H85" s="5" t="str">
+      <c r="H85" s="5">
         <f>G85*F85</f>
         <v>0</v>
       </c>
       <c r="I85" s="22"/>
-      <c r="J85" s="5" t="str">
+      <c r="J85" s="5">
         <f>I85*F85</f>
         <v>0</v>
       </c>
       <c r="K85" s="7"/>
-      <c r="L85" s="5" t="str">
+      <c r="L85" s="5">
         <f>K85*F85</f>
         <v>0</v>
       </c>
       <c r="M85" s="7"/>
-      <c r="N85" s="5" t="str">
+      <c r="N85" s="5">
         <f>M85*F85</f>
         <v>0</v>
       </c>
       <c r="O85" s="7"/>
-      <c r="P85" s="5" t="str">
+      <c r="P85" s="5">
         <f>O85*F85</f>
         <v>0</v>
       </c>
       <c r="Q85" s="7"/>
-      <c r="R85" s="5" t="str">
+      <c r="R85" s="5">
         <f>Q85*F85</f>
         <v>0</v>
       </c>
@@ -7875,32 +7899,32 @@
         <v>1.53</v>
       </c>
       <c r="G86" s="29"/>
-      <c r="H86" s="5" t="str">
+      <c r="H86" s="5">
         <f>G86*F86</f>
         <v>0</v>
       </c>
       <c r="I86" s="22"/>
-      <c r="J86" s="5" t="str">
+      <c r="J86" s="5">
         <f>I86*F86</f>
         <v>0</v>
       </c>
       <c r="K86" s="7"/>
-      <c r="L86" s="5" t="str">
+      <c r="L86" s="5">
         <f>K86*F86</f>
         <v>0</v>
       </c>
       <c r="M86" s="7"/>
-      <c r="N86" s="5" t="str">
+      <c r="N86" s="5">
         <f>M86*F86</f>
         <v>0</v>
       </c>
       <c r="O86" s="7"/>
-      <c r="P86" s="5" t="str">
+      <c r="P86" s="5">
         <f>O86*F86</f>
         <v>0</v>
       </c>
       <c r="Q86" s="7"/>
-      <c r="R86" s="5" t="str">
+      <c r="R86" s="5">
         <f>Q86*F86</f>
         <v>0</v>
       </c>
